--- a/Supplementary/Holland_MgCa/Data/Compiled_Mg_Data.xlsx
+++ b/Supplementary/Holland_MgCa/Data/Compiled_Mg_Data.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineholland/Google Drive/Kate/Mg_Reprocessing/Supplement_final/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineholland/Google Drive/Kate/Mg_Reprocessing/Maneeee/submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3220593E-64CA-0645-86FE-69336BA5C4F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC09A61-4A9B-704B-9655-E5BDB97E9B26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17480" windowHeight="16540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9940" yWindow="460" windowWidth="17480" windowHeight="16540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MgCa_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -907,6 +913,65 @@
     <t>have 2 x boron -&gt; beware the alkalinities</t>
   </si>
   <si>
+    <t>24hrambient</t>
+  </si>
+  <si>
+    <t>Amb+12hr BaD</t>
+  </si>
+  <si>
+    <t>Amb + 12hr BaN</t>
+  </si>
+  <si>
+    <t>Amb + 24hr Ba</t>
+  </si>
+  <si>
+    <t>Amb + 12hr BaD</t>
+  </si>
+  <si>
+    <t>HiCO3 + 24h</t>
+  </si>
+  <si>
+    <t>LH3</t>
+  </si>
+  <si>
+    <t>LH2</t>
+  </si>
+  <si>
+    <t>LH4</t>
+  </si>
+  <si>
+    <t>LH5</t>
+  </si>
+  <si>
+    <t>Haynes et al. (in prep)</t>
+  </si>
+  <si>
+    <r>
+      <t>Hönisch, Bärbel, Katherine A. Allen, David W. Lea, Howard J. Spero, Stephen M. Eggins, Jennifer Arbuszewski, Yair Rosenthal, Ann D. Russell, and Henry Elderfield. "The influence of salinity on Mg/Ca in planktic foraminifers–Evidence from cultures, core-top sediments and complementary δ18O." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Geochimica et Cosmochimica Acta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>121 (2013): 196-213.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Spero, Howard J., Stephen M. Eggins, Ann D. Russell, Lael Vetter, Matt R. Kilburn, and Bärbel Hönisch. "Timing and mechanism for intratest Mg/Ca variability in a living planktic foraminifer." </t>
     </r>
@@ -915,7 +980,7 @@
         <i/>
         <sz val="10"/>
         <color rgb="FF222222"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t>Earth and Planetary Science Letters</t>
@@ -924,47 +989,11 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF222222"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t> 409 (2015): 32-42.</t>
     </r>
-  </si>
-  <si>
-    <t>24hrambient</t>
-  </si>
-  <si>
-    <t>Amb+12hr BaD</t>
-  </si>
-  <si>
-    <t>Amb + 12hr BaN</t>
-  </si>
-  <si>
-    <t>Amb + 24hr Ba</t>
-  </si>
-  <si>
-    <t>Amb + 12hr BaD</t>
-  </si>
-  <si>
-    <t>HiCO3 + 24h</t>
-  </si>
-  <si>
-    <t>Haynes (subm)</t>
-  </si>
-  <si>
-    <t>LH3</t>
-  </si>
-  <si>
-    <t>have &lt; boron -&gt; beware the alkalinities</t>
-  </si>
-  <si>
-    <t>LH2</t>
-  </si>
-  <si>
-    <t>LH4</t>
-  </si>
-  <si>
-    <t>LH5</t>
   </si>
 </sst>
 </file>
@@ -1105,25 +1134,25 @@
       <charset val="1"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1152,7 +1181,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1241,9 +1270,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2301,6 +2330,330 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568905D5-D6A2-7A4C-9CE6-CEE5EC178384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BAC636-7ADF-5C47-AAB7-915B9C693368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9C17C0-97C8-C842-8081-0EEF03D8ECCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306341BE-BFB9-A544-93FC-9837D6E116E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CCC1CA-A0EA-774D-91C1-AAB27375DABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5E4163-347F-1D4A-8AB0-6C1568E74C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2606,9 +2959,9 @@
   </sheetPr>
   <dimension ref="A1:Z126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6252,15 +6605,15 @@
       </c>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="46">
+      <c r="N52" s="45">
         <v>1068.8220539833401</v>
       </c>
-      <c r="O52" s="46">
+      <c r="O52" s="45">
         <v>10.5533707537325</v>
       </c>
       <c r="P52" s="29"/>
       <c r="Q52" s="13" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="R52" s="9" t="s">
         <v>28</v>
@@ -6270,7 +6623,7 @@
       </c>
       <c r="T52" s="9"/>
       <c r="U52" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V52" s="26">
         <v>367</v>
@@ -6285,7 +6638,7 @@
         <v>32</v>
       </c>
       <c r="Z52" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:26" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6324,15 +6677,15 @@
       </c>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="46">
+      <c r="N53" s="45">
         <v>2197.2788357218401</v>
       </c>
-      <c r="O53" s="46">
+      <c r="O53" s="45">
         <v>7.32250906691457</v>
       </c>
       <c r="P53" s="29"/>
       <c r="Q53" s="13" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="R53" s="9" t="s">
         <v>28</v>
@@ -6342,7 +6695,7 @@
       </c>
       <c r="T53" s="9"/>
       <c r="U53" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="V53" s="26">
         <v>361</v>
@@ -6357,7 +6710,7 @@
         <v>32</v>
       </c>
       <c r="Z53" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:26" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6396,15 +6749,15 @@
       </c>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="46">
+      <c r="N54" s="45">
         <v>2197.2788357218401</v>
       </c>
-      <c r="O54" s="46">
+      <c r="O54" s="45">
         <v>7.32250906691457</v>
       </c>
       <c r="P54" s="29"/>
       <c r="Q54" s="13" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="R54" s="9" t="s">
         <v>28</v>
@@ -6414,7 +6767,7 @@
       </c>
       <c r="T54" s="9"/>
       <c r="U54" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="V54" s="26">
         <v>361</v>
@@ -6429,7 +6782,7 @@
         <v>32</v>
       </c>
       <c r="Z54" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:26" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6468,15 +6821,15 @@
       </c>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="46">
+      <c r="N55" s="45">
         <v>2998</v>
       </c>
-      <c r="O55" s="46">
+      <c r="O55" s="45">
         <v>14.6018615513314</v>
       </c>
       <c r="P55" s="29"/>
       <c r="Q55" s="13" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="R55" s="9" t="s">
         <v>28</v>
@@ -6486,7 +6839,7 @@
       </c>
       <c r="T55" s="9"/>
       <c r="U55" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="V55" s="26">
         <v>367</v>
@@ -6501,7 +6854,7 @@
         <v>32</v>
       </c>
       <c r="Z55" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:26" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6540,15 +6893,15 @@
       </c>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="46">
+      <c r="N56" s="45">
         <v>2998</v>
       </c>
-      <c r="O56" s="46">
+      <c r="O56" s="45">
         <v>14.6018615513314</v>
       </c>
       <c r="P56" s="29"/>
       <c r="Q56" s="13" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="R56" s="9" t="s">
         <v>28</v>
@@ -6558,7 +6911,7 @@
       </c>
       <c r="T56" s="9"/>
       <c r="U56" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="V56" s="26">
         <v>367</v>
@@ -6573,7 +6926,7 @@
         <v>32</v>
       </c>
       <c r="Z56" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:26" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6612,15 +6965,15 @@
       </c>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="46">
+      <c r="N57" s="45">
         <v>4180.5270058890801</v>
       </c>
-      <c r="O57" s="46">
+      <c r="O57" s="45">
         <v>20.3911103568099</v>
       </c>
       <c r="P57" s="29"/>
       <c r="Q57" s="13" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="R57" s="9" t="s">
         <v>28</v>
@@ -6630,7 +6983,7 @@
       </c>
       <c r="T57" s="9"/>
       <c r="U57" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V57" s="26">
         <v>359</v>
@@ -6645,7 +6998,7 @@
         <v>32</v>
       </c>
       <c r="Z57" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:26" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6684,15 +7037,15 @@
       </c>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="46">
+      <c r="N58" s="45">
         <v>4180.5270058890801</v>
       </c>
-      <c r="O58" s="46">
+      <c r="O58" s="45">
         <v>20.3911103568099</v>
       </c>
       <c r="P58" s="29"/>
       <c r="Q58" s="13" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="R58" s="9" t="s">
         <v>28</v>
@@ -6702,7 +7055,7 @@
       </c>
       <c r="T58" s="9"/>
       <c r="U58" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V58" s="26">
         <v>359</v>
@@ -6717,7 +7070,7 @@
         <v>32</v>
       </c>
       <c r="Z58" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:26" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6756,15 +7109,15 @@
       </c>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="46">
+      <c r="N59" s="45">
         <v>4180.5270058890801</v>
       </c>
-      <c r="O59" s="46">
+      <c r="O59" s="45">
         <v>20.3911103568099</v>
       </c>
       <c r="P59" s="29"/>
       <c r="Q59" s="13" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="R59" s="9" t="s">
         <v>28</v>
@@ -6774,7 +7127,7 @@
       </c>
       <c r="T59" s="9"/>
       <c r="U59" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V59" s="26">
         <v>359</v>
@@ -6789,7 +7142,7 @@
         <v>32</v>
       </c>
       <c r="Z59" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:26" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6837,8 +7190,8 @@
         <v>10</v>
       </c>
       <c r="P60" s="9"/>
-      <c r="Q60" s="44" t="s">
-        <v>157</v>
+      <c r="Q60" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="R60" s="9" t="s">
         <v>28</v>
@@ -6848,7 +7201,7 @@
       </c>
       <c r="T60" s="9"/>
       <c r="U60" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V60" s="9">
         <f t="shared" ref="V60:V68" si="2">416*C60/35</f>
@@ -6908,8 +7261,8 @@
         <v>10</v>
       </c>
       <c r="P61" s="9"/>
-      <c r="Q61" s="44" t="s">
-        <v>157</v>
+      <c r="Q61" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="R61" s="9" t="s">
         <v>28</v>
@@ -6919,7 +7272,7 @@
       </c>
       <c r="T61" s="9"/>
       <c r="U61" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V61" s="9">
         <f t="shared" si="2"/>
@@ -6979,8 +7332,8 @@
         <v>10</v>
       </c>
       <c r="P62" s="9"/>
-      <c r="Q62" s="44" t="s">
-        <v>157</v>
+      <c r="Q62" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="R62" s="9" t="s">
         <v>28</v>
@@ -6990,7 +7343,7 @@
       </c>
       <c r="T62" s="9"/>
       <c r="U62" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V62" s="9">
         <f t="shared" si="2"/>
@@ -7050,8 +7403,8 @@
         <v>10</v>
       </c>
       <c r="P63" s="9"/>
-      <c r="Q63" s="44" t="s">
-        <v>157</v>
+      <c r="Q63" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="R63" s="9" t="s">
         <v>28</v>
@@ -7061,7 +7414,7 @@
       </c>
       <c r="T63" s="9"/>
       <c r="U63" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V63" s="9">
         <f t="shared" si="2"/>
@@ -7121,8 +7474,8 @@
         <v>10</v>
       </c>
       <c r="P64" s="9"/>
-      <c r="Q64" s="44" t="s">
-        <v>157</v>
+      <c r="Q64" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="R64" s="9" t="s">
         <v>28</v>
@@ -7132,7 +7485,7 @@
       </c>
       <c r="T64" s="9"/>
       <c r="U64" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V64" s="9">
         <f t="shared" si="2"/>
@@ -7192,8 +7545,8 @@
         <v>10</v>
       </c>
       <c r="P65" s="9"/>
-      <c r="Q65" s="44" t="s">
-        <v>157</v>
+      <c r="Q65" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="R65" s="9" t="s">
         <v>28</v>
@@ -7203,7 +7556,7 @@
       </c>
       <c r="T65" s="9"/>
       <c r="U65" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V65" s="9">
         <f t="shared" si="2"/>
@@ -7263,8 +7616,8 @@
         <v>10</v>
       </c>
       <c r="P66" s="9"/>
-      <c r="Q66" s="44" t="s">
-        <v>157</v>
+      <c r="Q66" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="R66" s="9" t="s">
         <v>28</v>
@@ -7274,7 +7627,7 @@
       </c>
       <c r="T66" s="9"/>
       <c r="U66" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V66" s="9">
         <f t="shared" si="2"/>
@@ -7310,7 +7663,7 @@
       <c r="F67" s="9">
         <v>5.16</v>
       </c>
-      <c r="G67" s="45">
+      <c r="G67" s="44">
         <v>4.04</v>
       </c>
       <c r="H67" s="11">
@@ -7334,8 +7687,8 @@
         <v>9</v>
       </c>
       <c r="P67" s="9"/>
-      <c r="Q67" s="44" t="s">
-        <v>157</v>
+      <c r="Q67" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="R67" s="9" t="s">
         <v>28</v>
@@ -7345,7 +7698,7 @@
       </c>
       <c r="T67" s="9"/>
       <c r="U67" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V67" s="9">
         <f t="shared" si="2"/>
@@ -7405,8 +7758,8 @@
         <v>9</v>
       </c>
       <c r="P68" s="9"/>
-      <c r="Q68" s="44" t="s">
-        <v>157</v>
+      <c r="Q68" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="R68" s="9" t="s">
         <v>28</v>
@@ -7416,7 +7769,7 @@
       </c>
       <c r="T68" s="9"/>
       <c r="U68" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V68" s="9">
         <f t="shared" si="2"/>
@@ -7473,7 +7826,7 @@
       <c r="O69" s="18"/>
       <c r="P69" s="9"/>
       <c r="Q69" s="13" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>28</v>
@@ -8316,11 +8669,10 @@
         <v>5.16</v>
       </c>
       <c r="G81" s="29">
-        <v>6.82</v>
+        <v>7.56</v>
       </c>
       <c r="H81" s="9">
-        <f>0.27*2</f>
-        <v>0.54</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>26</v>
@@ -8392,11 +8744,10 @@
         <v>5.16</v>
       </c>
       <c r="G82" s="29">
-        <v>6.68</v>
+        <v>7.32</v>
       </c>
       <c r="H82" s="9">
-        <f>0.33*2</f>
-        <v>0.66</v>
+        <v>1.42</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>26</v>

--- a/Supplementary/Holland_MgCa/Data/Compiled_Mg_Data.xlsx
+++ b/Supplementary/Holland_MgCa/Data/Compiled_Mg_Data.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="170">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">pHTOTAL_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH_Temp</t>
   </si>
   <si>
     <t xml:space="preserve">Alk</t>
@@ -1466,9 +1469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:colOff>263160</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1478,7 +1481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7738560" cy="11143800"/>
+          <a:ext cx="7738200" cy="11143440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1508,9 +1511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:colOff>263160</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1520,7 +1523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7738560" cy="11143800"/>
+          <a:ext cx="7738200" cy="11143440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1550,9 +1553,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>581400</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:colOff>581040</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1562,7 +1565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11793960" cy="15896520"/>
+          <a:ext cx="11793600" cy="15896160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1592,9 +1595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>581400</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:colOff>581040</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1604,7 +1607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11793960" cy="15896520"/>
+          <a:ext cx="11793600" cy="15896160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1634,9 +1637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1646,7 +1649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10662120" cy="10923120"/>
+          <a:ext cx="10661760" cy="10922760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1676,9 +1679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1688,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10662120" cy="10923120"/>
+          <a:ext cx="10661760" cy="10922760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,10 +1720,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>583200</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>582840</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1730,7 +1733,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11795760" cy="12978720"/>
+          <a:ext cx="12418560" cy="11973960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1759,10 +1762,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>583200</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>582840</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1772,7 +1775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11795760" cy="12978720"/>
+          <a:ext cx="12418560" cy="11973960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1801,10 +1804,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>583560</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>583200</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1814,7 +1817,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11796120" cy="12978720"/>
+          <a:ext cx="12418920" cy="11973960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1843,10 +1846,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>583560</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>583200</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1856,7 +1859,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11796120" cy="12978720"/>
+          <a:ext cx="12418920" cy="11973960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1885,10 +1888,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1898,7 +1901,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10042560" cy="12978720"/>
+          <a:ext cx="10665000" cy="11973960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1927,10 +1930,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1940,7 +1943,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10042560" cy="12978720"/>
+          <a:ext cx="10665000" cy="11973960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1969,10 +1972,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1982,7 +1985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10042560" cy="12978720"/>
+          <a:ext cx="10665000" cy="11973960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2014,10 +2017,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2027,7 +2030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10042560" cy="12978720"/>
+          <a:ext cx="10665000" cy="11973960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2059,23 +2062,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Z126"/>
+  <dimension ref="A1:AA126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N70" activeCellId="0" sqref="N70"/>
+      <selection pane="bottomLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="1" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="16.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="25.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,16 +2116,16 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="6" t="s">
@@ -2136,10 +2137,10 @@
       <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="6" t="s">
@@ -2154,8 +2155,11 @@
       <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>2013</v>
       </c>
@@ -2181,7 +2185,7 @@
         <v>0.23279133057726</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="10" t="n">
         <v>7.5516</v>
@@ -2191,42 +2195,45 @@
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O2" s="12" t="n">
         <v>1942.0333871393</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="P2" s="12" t="n">
         <v>7.74965715983901</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="U2" s="9"/>
+      <c r="V2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="9" t="n">
         <f aca="false">416*C2/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W2" s="9" t="n">
+      <c r="X2" s="9" t="n">
         <v>19</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2253,7 +2260,7 @@
         <v>0.285960197768684</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -2261,42 +2268,45 @@
         <v>7.66</v>
       </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="18" t="n">
+      <c r="N3" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O3" s="18" t="n">
         <v>2061</v>
       </c>
-      <c r="O3" s="18" t="n">
+      <c r="P3" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="9" t="n">
+      <c r="T3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="9" t="n">
         <f aca="false">416*C3/35</f>
         <v>382.72</v>
       </c>
-      <c r="W3" s="9" t="n">
+      <c r="X3" s="9" t="n">
         <v>16</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>0.322593782229457</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -2331,42 +2341,45 @@
         <v>7.74</v>
       </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="18" t="n">
+      <c r="N4" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O4" s="18" t="n">
         <v>2069</v>
       </c>
-      <c r="O4" s="18" t="n">
+      <c r="P4" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="9" t="n">
+      <c r="T4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="9" t="n">
         <f aca="false">416*C4/35</f>
         <v>388.662857142857</v>
       </c>
-      <c r="W4" s="9" t="n">
+      <c r="X4" s="9" t="n">
         <v>23</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2393,7 +2406,7 @@
         <v>0.49696725072957</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -2401,42 +2414,45 @@
         <v>7.82</v>
       </c>
       <c r="M5" s="9"/>
-      <c r="N5" s="18" t="n">
+      <c r="N5" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O5" s="18" t="n">
         <v>2124</v>
       </c>
-      <c r="O5" s="18" t="n">
+      <c r="P5" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="9" t="n">
+      <c r="T5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="9" t="n">
         <f aca="false">416*C5/35</f>
         <v>382.72</v>
       </c>
-      <c r="W5" s="9" t="n">
+      <c r="X5" s="9" t="n">
         <v>19</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2463,7 +2479,7 @@
         <v>0.472024375016056</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -2471,42 +2487,45 @@
         <v>7.961</v>
       </c>
       <c r="M6" s="9"/>
-      <c r="N6" s="18" t="n">
+      <c r="N6" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O6" s="18" t="n">
         <v>2176.25</v>
       </c>
-      <c r="O6" s="18" t="n">
+      <c r="P6" s="18" t="n">
         <v>47</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="9" t="s">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" s="9" t="n">
+      <c r="T6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="9" t="n">
         <f aca="false">416*C6/35</f>
         <v>386.285714285714</v>
       </c>
-      <c r="W6" s="9" t="n">
+      <c r="X6" s="9" t="n">
         <v>25</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2533,7 +2552,7 @@
         <v>0.411158340068086</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -2541,42 +2560,45 @@
         <v>7.989</v>
       </c>
       <c r="M7" s="9"/>
-      <c r="N7" s="18" t="n">
+      <c r="N7" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O7" s="18" t="n">
         <v>2178</v>
       </c>
-      <c r="O7" s="18" t="n">
+      <c r="P7" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="9" t="n">
+      <c r="T7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="9" t="n">
         <f aca="false">416*C7/35</f>
         <v>391.04</v>
       </c>
-      <c r="W7" s="9" t="n">
+      <c r="X7" s="9" t="n">
         <v>22</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2603,7 +2625,7 @@
         <v>0.532977082753858</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -2611,42 +2633,45 @@
         <v>8.083</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="N8" s="18" t="n">
+      <c r="N8" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O8" s="18" t="n">
         <v>2264.6</v>
       </c>
-      <c r="O8" s="18" t="n">
+      <c r="P8" s="18" t="n">
         <v>14.6</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="Q8" s="9"/>
+      <c r="R8" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" s="9" t="n">
+      <c r="T8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="9"/>
+      <c r="V8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="9" t="n">
         <f aca="false">416*C8/35</f>
         <v>392.228571428571</v>
       </c>
-      <c r="W8" s="9" t="n">
+      <c r="X8" s="9" t="n">
         <v>23</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2673,7 +2698,7 @@
         <v>0.714959560519978</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -2681,44 +2706,47 @@
         <v>8.12</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="18" t="n">
+      <c r="N9" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O9" s="18" t="n">
         <v>2248</v>
       </c>
-      <c r="O9" s="18" t="n">
+      <c r="P9" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="9" t="s">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="9" t="n">
+      <c r="T9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="9" t="n">
         <f aca="false">416*C9/35</f>
         <v>389.851428571429</v>
       </c>
-      <c r="W9" s="9" t="n">
+      <c r="X9" s="9" t="n">
         <v>22</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z9" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2745,7 +2773,7 @@
         <v>0.684593180240789</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
@@ -2753,42 +2781,45 @@
         <v>8.087</v>
       </c>
       <c r="M10" s="9"/>
-      <c r="N10" s="18" t="n">
+      <c r="N10" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O10" s="18" t="n">
         <v>2268.5</v>
       </c>
-      <c r="O10" s="18" t="n">
+      <c r="P10" s="18" t="n">
         <v>0.7</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="9" t="s">
+      <c r="Q10" s="20"/>
+      <c r="R10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" s="9" t="n">
+      <c r="T10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="9"/>
+      <c r="V10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="9" t="n">
         <f aca="false">416*C10/35</f>
         <v>388.662857142857</v>
       </c>
-      <c r="W10" s="9" t="n">
+      <c r="X10" s="9" t="n">
         <v>22</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2815,7 +2846,7 @@
         <v>1.08869049152881</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
@@ -2823,44 +2854,47 @@
         <v>8.12</v>
       </c>
       <c r="M11" s="9"/>
-      <c r="N11" s="18" t="n">
+      <c r="N11" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O11" s="18" t="n">
         <v>2248</v>
       </c>
-      <c r="O11" s="18" t="n">
+      <c r="P11" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="9" t="s">
+      <c r="Q11" s="9"/>
+      <c r="R11" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="9" t="n">
+      <c r="T11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="9" t="n">
         <f aca="false">416*C11/35</f>
         <v>389.851428571429</v>
       </c>
-      <c r="W11" s="9" t="n">
+      <c r="X11" s="9" t="n">
         <v>22</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z11" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2887,7 +2921,7 @@
         <v>0.825618896167573</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
@@ -2895,42 +2929,45 @@
         <v>8.052</v>
       </c>
       <c r="M12" s="9"/>
-      <c r="N12" s="18" t="n">
+      <c r="N12" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O12" s="18" t="n">
         <v>2242</v>
       </c>
-      <c r="O12" s="18" t="n">
+      <c r="P12" s="18" t="n">
         <v>12.7</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="9" t="s">
+      <c r="Q12" s="9"/>
+      <c r="R12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="V12" s="9" t="n">
+      <c r="T12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="9"/>
+      <c r="V12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="9" t="n">
         <f aca="false">416*C12/35</f>
         <v>394.605714285714</v>
       </c>
-      <c r="W12" s="9" t="n">
+      <c r="X12" s="9" t="n">
         <v>18</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>2008</v>
       </c>
@@ -2957,7 +2994,7 @@
         <v>0.285960197768684</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
@@ -2965,42 +3002,45 @@
         <v>8.17</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="18" t="n">
+      <c r="N13" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O13" s="18" t="n">
         <v>2306</v>
       </c>
-      <c r="O13" s="18" t="n">
+      <c r="P13" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="9" t="s">
+      <c r="Q13" s="9"/>
+      <c r="R13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="V13" s="9" t="n">
+      <c r="T13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="9" t="n">
         <f aca="false">416*C13/35</f>
         <v>392.228571428571</v>
       </c>
-      <c r="W13" s="9" t="n">
+      <c r="X13" s="9" t="n">
         <v>23</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>2008</v>
       </c>
@@ -3027,7 +3067,7 @@
         <v>1.0201663216765</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
@@ -3035,42 +3075,45 @@
         <v>8.181</v>
       </c>
       <c r="M14" s="11"/>
-      <c r="N14" s="18" t="n">
+      <c r="N14" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O14" s="18" t="n">
         <v>2292.5</v>
       </c>
-      <c r="O14" s="18" t="n">
+      <c r="P14" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="9" t="s">
+      <c r="Q14" s="9"/>
+      <c r="R14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" s="9" t="n">
+      <c r="T14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="9" t="n">
         <f aca="false">416*C14/35</f>
         <v>387.474285714286</v>
       </c>
-      <c r="W14" s="9" t="n">
+      <c r="X14" s="9" t="n">
         <v>19</v>
-      </c>
-      <c r="X14" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>2008</v>
       </c>
@@ -3097,7 +3140,7 @@
         <v>1.06207990133859</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -3105,42 +3148,45 @@
         <v>8.1</v>
       </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="18" t="n">
+      <c r="N15" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O15" s="18" t="n">
         <v>2258</v>
       </c>
-      <c r="O15" s="18" t="n">
+      <c r="P15" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" s="9" t="s">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15" s="9" t="n">
+      <c r="T15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="9" t="n">
         <f aca="false">416*C15/35</f>
         <v>386.285714285714</v>
       </c>
-      <c r="W15" s="9" t="n">
+      <c r="X15" s="9" t="n">
         <v>13</v>
-      </c>
-      <c r="X15" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>2008</v>
       </c>
@@ -3167,7 +3213,7 @@
         <v>1.3288148310504</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -3175,42 +3221,45 @@
         <v>7.89</v>
       </c>
       <c r="M16" s="11"/>
-      <c r="N16" s="18" t="n">
+      <c r="N16" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O16" s="18" t="n">
         <v>2227</v>
       </c>
-      <c r="O16" s="18" t="n">
+      <c r="P16" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="9" t="s">
+      <c r="Q16" s="9"/>
+      <c r="R16" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="9" t="n">
+      <c r="T16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W16" s="9" t="n">
         <f aca="false">416*C16/35</f>
         <v>385.097142857143</v>
       </c>
-      <c r="W16" s="9" t="n">
+      <c r="X16" s="9" t="n">
         <v>23</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>2008</v>
       </c>
@@ -3237,7 +3286,7 @@
         <v>1.16863190371425</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -3245,40 +3294,43 @@
         <v>7.915</v>
       </c>
       <c r="M17" s="11"/>
-      <c r="N17" s="18" t="n">
+      <c r="N17" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O17" s="18" t="n">
         <v>2241</v>
       </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="9" t="s">
+      <c r="P17" s="18"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="V17" s="9" t="n">
+      <c r="T17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" s="9" t="n">
         <f aca="false">416*C17/35</f>
         <v>386.285714285714</v>
       </c>
-      <c r="W17" s="9" t="n">
+      <c r="X17" s="9" t="n">
         <v>21</v>
-      </c>
-      <c r="X17" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>2011</v>
       </c>
@@ -3305,7 +3357,7 @@
         <v>0.185109853611634</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -3315,42 +3367,45 @@
       <c r="M18" s="11" t="n">
         <v>0.0171897459100244</v>
       </c>
-      <c r="N18" s="18" t="n">
+      <c r="N18" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O18" s="18" t="n">
         <v>2145.95908697015</v>
       </c>
-      <c r="O18" s="18" t="n">
+      <c r="P18" s="18" t="n">
         <v>38.5995405093485</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="9" t="s">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="V18" s="9" t="n">
+      <c r="T18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W18" s="9" t="n">
         <f aca="false">416*C18/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W18" s="9" t="n">
+      <c r="X18" s="9" t="n">
         <v>21</v>
-      </c>
-      <c r="X18" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>2011</v>
       </c>
@@ -3377,7 +3432,7 @@
         <v>0.348611438233017</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -3387,42 +3442,45 @@
       <c r="M19" s="11" t="n">
         <v>0.0243044497158967</v>
       </c>
-      <c r="N19" s="18" t="n">
+      <c r="N19" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O19" s="18" t="n">
         <v>2198.92000682277</v>
       </c>
-      <c r="O19" s="18" t="n">
+      <c r="P19" s="18" t="n">
         <v>18.2010162664746</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="9" t="s">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V19" s="9" t="n">
+      <c r="T19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" s="9" t="n">
         <f aca="false">416*C19/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W19" s="9" t="n">
+      <c r="X19" s="9" t="n">
         <v>25</v>
-      </c>
-      <c r="X19" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>2011</v>
       </c>
@@ -3449,7 +3507,7 @@
         <v>0.656144210809906</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -3459,42 +3517,45 @@
       <c r="M20" s="11" t="n">
         <v>0.0335284403842189</v>
       </c>
-      <c r="N20" s="18" t="n">
+      <c r="N20" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O20" s="18" t="n">
         <v>2156.70004012021</v>
       </c>
-      <c r="O20" s="18" t="n">
+      <c r="P20" s="18" t="n">
         <v>14.0188347601219</v>
       </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" s="9" t="s">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V20" s="9" t="n">
+      <c r="T20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" s="9" t="n">
         <f aca="false">416*C20/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W20" s="9" t="n">
+      <c r="X20" s="9" t="n">
         <v>20</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>2011</v>
       </c>
@@ -3521,7 +3582,7 @@
         <v>0.640464202829367</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -3531,42 +3592,45 @@
       <c r="M21" s="11" t="n">
         <v>0.00846065374971516</v>
       </c>
-      <c r="N21" s="18" t="n">
+      <c r="N21" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O21" s="18" t="n">
         <v>2185.38688669189</v>
       </c>
-      <c r="O21" s="18" t="n">
+      <c r="P21" s="18" t="n">
         <v>31.9098098009288</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" s="9" t="s">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="V21" s="9" t="n">
+      <c r="T21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="W21" s="9" t="n">
         <f aca="false">416*C21/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W21" s="9" t="n">
+      <c r="X21" s="9" t="n">
         <v>24</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>2011</v>
       </c>
@@ -3593,7 +3657,7 @@
         <v>0.607332195850819</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -3603,42 +3667,45 @@
       <c r="M22" s="11" t="n">
         <v>4.40011075756932E-005</v>
       </c>
-      <c r="N22" s="18" t="n">
+      <c r="N22" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O22" s="18" t="n">
         <v>2194.80639358126</v>
       </c>
-      <c r="O22" s="18" t="n">
+      <c r="P22" s="18" t="n">
         <v>48.6764122086302</v>
       </c>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R22" s="9" t="s">
+      <c r="Q22" s="18"/>
+      <c r="R22" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V22" s="9" t="n">
+      <c r="T22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="9" t="n">
         <f aca="false">416*C22/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W22" s="9" t="n">
+      <c r="X22" s="9" t="n">
         <v>28</v>
-      </c>
-      <c r="X22" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>2011</v>
       </c>
@@ -3665,7 +3732,7 @@
         <v>0.883425457088486</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -3675,42 +3742,45 @@
       <c r="M23" s="11" t="n">
         <v>4.40011075756932E-005</v>
       </c>
-      <c r="N23" s="18" t="n">
+      <c r="N23" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O23" s="18" t="n">
         <v>2194.80639358126</v>
       </c>
-      <c r="O23" s="18" t="n">
+      <c r="P23" s="18" t="n">
         <v>48.6764122086302</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R23" s="9" t="s">
+      <c r="Q23" s="18"/>
+      <c r="R23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="V23" s="9" t="n">
+      <c r="T23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="9" t="n">
         <f aca="false">416*C23/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W23" s="9" t="n">
+      <c r="X23" s="9" t="n">
         <v>23</v>
-      </c>
-      <c r="X23" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>2013</v>
       </c>
@@ -3737,7 +3807,7 @@
         <v>0.740696368598991</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" s="10" t="n">
         <v>8.0782</v>
@@ -3745,42 +3815,45 @@
       <c r="K24" s="10" t="n">
         <v>0.01384557691113</v>
       </c>
-      <c r="N24" s="12" t="n">
+      <c r="N24" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O24" s="12" t="n">
         <v>2198.19272142688</v>
       </c>
-      <c r="O24" s="12" t="n">
+      <c r="P24" s="12" t="n">
         <v>3.41593120224169</v>
       </c>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R24" s="9" t="s">
+      <c r="Q24" s="18"/>
+      <c r="R24" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="V24" s="9" t="n">
+      <c r="T24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" s="9" t="n">
         <f aca="false">416*C24/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W24" s="9" t="n">
+      <c r="X24" s="9" t="n">
         <v>23</v>
-      </c>
-      <c r="X24" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>2013</v>
       </c>
@@ -3807,7 +3880,7 @@
         <v>0.778251462673238</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J25" s="10" t="n">
         <v>8.526</v>
@@ -3815,42 +3888,45 @@
       <c r="K25" s="10" t="n">
         <v>0.0246170672502792</v>
       </c>
-      <c r="N25" s="12" t="n">
+      <c r="N25" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O25" s="12" t="n">
         <v>2470.06654394675</v>
       </c>
-      <c r="O25" s="12" t="n">
+      <c r="P25" s="12" t="n">
         <v>8.33738813921276</v>
       </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" s="9" t="s">
+      <c r="Q25" s="18"/>
+      <c r="R25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="V25" s="9" t="n">
+      <c r="T25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="9" t="n">
         <f aca="false">416*C25/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W25" s="9" t="n">
+      <c r="X25" s="9" t="n">
         <v>26</v>
-      </c>
-      <c r="X25" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>2013</v>
       </c>
@@ -3877,46 +3953,49 @@
         <v>1.12911368029139</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J26" s="10" t="n">
         <v>7.555</v>
       </c>
       <c r="K26" s="10"/>
-      <c r="N26" s="12" t="n">
+      <c r="N26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O26" s="12" t="n">
         <v>2336.27929742503</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R26" s="9" t="s">
+      <c r="P26" s="12"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V26" s="9" t="n">
+      <c r="T26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W26" s="9" t="n">
         <f aca="false">416*C26/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W26" s="9" t="n">
+      <c r="X26" s="9" t="n">
         <v>17</v>
-      </c>
-      <c r="X26" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z26" s="9"/>
-    </row>
-    <row r="27" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA26" s="9"/>
+    </row>
+    <row r="27" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>2014</v>
       </c>
@@ -3943,7 +4022,7 @@
         <v>1.0850344186173</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J27" s="11" t="n">
         <v>8.04</v>
@@ -3953,42 +4032,45 @@
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="18" t="n">
+      <c r="N27" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O27" s="18" t="n">
         <v>2309.25</v>
       </c>
-      <c r="O27" s="18" t="n">
+      <c r="P27" s="18" t="n">
         <v>4.78713553878169</v>
       </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R27" s="9" t="s">
+      <c r="Q27" s="18"/>
+      <c r="R27" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V27" s="9" t="n">
+      <c r="T27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W27" s="9" t="n">
         <f aca="false">416*C27/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W27" s="9" t="n">
+      <c r="X27" s="9" t="n">
         <v>18</v>
-      </c>
-      <c r="X27" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z27" s="9"/>
-    </row>
-    <row r="28" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA27" s="9"/>
+    </row>
+    <row r="28" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4015,7 +4097,7 @@
         <v>0.705846735177464</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J28" s="11" t="n">
         <v>8.005</v>
@@ -4025,42 +4107,45 @@
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="18"/>
-      <c r="N28" s="12" t="n">
+      <c r="N28" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O28" s="12" t="n">
         <v>2226</v>
       </c>
-      <c r="O28" s="12" t="n">
+      <c r="P28" s="12" t="n">
         <v>6.37704215656966</v>
       </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R28" s="9" t="s">
+      <c r="Q28" s="18"/>
+      <c r="R28" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="V28" s="9" t="n">
+      <c r="T28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W28" s="9" t="n">
         <f aca="false">416*C28/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W28" s="9" t="n">
+      <c r="X28" s="9" t="n">
         <v>13</v>
-      </c>
-      <c r="X28" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z28" s="9"/>
-    </row>
-    <row r="29" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA28" s="9"/>
+    </row>
+    <row r="29" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4086,7 +4171,7 @@
         <v>0.381516834989754</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J29" s="11" t="n">
         <v>7.89059044771673</v>
@@ -4096,41 +4181,44 @@
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="18"/>
-      <c r="N29" s="12" t="n">
+      <c r="N29" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O29" s="12" t="n">
         <v>2228.33322238249</v>
       </c>
-      <c r="O29" s="12" t="n">
+      <c r="P29" s="12" t="n">
         <v>10.4721853816033</v>
       </c>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R29" s="9" t="s">
+      <c r="Q29" s="18"/>
+      <c r="R29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V29" s="9" t="n">
+      <c r="T29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="9" t="n">
         <v>704.877647159927</v>
       </c>
-      <c r="W29" s="9" t="n">
+      <c r="X29" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="X29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4156,7 +4244,7 @@
         <v>0.698414333191852</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J30" s="11" t="n">
         <v>8.25524879062576</v>
@@ -4166,41 +4254,44 @@
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="18"/>
-      <c r="N30" s="12" t="n">
+      <c r="N30" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O30" s="12" t="n">
         <v>2471.49988904916</v>
       </c>
-      <c r="O30" s="12" t="n">
+      <c r="P30" s="12" t="n">
         <v>7.02376916856849</v>
       </c>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R30" s="9" t="s">
+      <c r="Q30" s="18"/>
+      <c r="R30" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9" t="s">
+      <c r="T30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="W30" s="9" t="n">
+        <v>690.860639994253</v>
+      </c>
+      <c r="X30" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V30" s="9" t="n">
-        <v>690.860639994253</v>
-      </c>
-      <c r="W30" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="X30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4226,7 +4317,7 @@
         <v>0.496941168500285</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J31" s="11" t="n">
         <v>7.66016010820869</v>
@@ -4236,41 +4327,44 @@
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="18"/>
-      <c r="N31" s="12" t="n">
+      <c r="N31" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O31" s="12" t="n">
         <v>2093.24336071883</v>
       </c>
-      <c r="O31" s="12" t="n">
+      <c r="P31" s="12" t="n">
         <v>8.71782646180302</v>
       </c>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R31" s="9" t="s">
+      <c r="Q31" s="18"/>
+      <c r="R31" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="V31" s="9" t="n">
+      <c r="T31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W31" s="9" t="n">
         <v>696.853241846169</v>
       </c>
-      <c r="W31" s="9" t="n">
+      <c r="X31" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="X31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4296,7 +4390,7 @@
         <v>0.667147812805104</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J32" s="11" t="n">
         <v>7.97</v>
@@ -4306,41 +4400,44 @@
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="18"/>
+      <c r="N32" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O32" s="18"/>
-      <c r="P32" s="18" t="n">
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18" t="n">
         <v>4003</v>
       </c>
-      <c r="Q32" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="V32" s="20" t="n">
+      <c r="T32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W32" s="20" t="n">
         <v>2056.85528129571</v>
       </c>
-      <c r="W32" s="25" t="n">
+      <c r="X32" s="25" t="n">
         <v>6</v>
-      </c>
-      <c r="X32" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z32" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4366,7 +4463,7 @@
         <v>1.32598773787506</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J33" s="11" t="n">
         <v>7.6725</v>
@@ -4376,41 +4473,44 @@
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="18"/>
+      <c r="N33" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O33" s="18"/>
-      <c r="P33" s="9" t="n">
+      <c r="P33" s="18"/>
+      <c r="Q33" s="9" t="n">
         <v>3946</v>
       </c>
-      <c r="Q33" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R33" s="9" t="s">
+      <c r="R33" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S33" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V33" s="26" t="n">
+      <c r="T33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W33" s="26" t="n">
         <v>1995.93077778435</v>
       </c>
-      <c r="W33" s="26" t="n">
+      <c r="X33" s="26" t="n">
         <v>4</v>
-      </c>
-      <c r="X33" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z33" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4436,7 +4536,7 @@
         <v>1.12522249007288</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J34" s="11" t="n">
         <v>7.96166666666667</v>
@@ -4446,41 +4546,44 @@
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="18"/>
+      <c r="N34" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O34" s="18"/>
-      <c r="P34" s="9" t="n">
+      <c r="P34" s="18"/>
+      <c r="Q34" s="9" t="n">
         <v>1061</v>
       </c>
-      <c r="Q34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34" s="9" t="s">
+      <c r="R34" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="V34" s="26" t="n">
+      <c r="T34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W34" s="26" t="n">
         <v>1973.46112074206</v>
       </c>
-      <c r="W34" s="26" t="n">
+      <c r="X34" s="26" t="n">
         <v>5</v>
-      </c>
-      <c r="X34" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y34" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z34" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA34" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4506,7 +4609,7 @@
         <v>0.386929763116717</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J35" s="11" t="n">
         <v>7.6575</v>
@@ -4516,41 +4619,44 @@
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="18"/>
+      <c r="N35" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O35" s="18"/>
-      <c r="P35" s="9" t="n">
+      <c r="P35" s="18"/>
+      <c r="Q35" s="9" t="n">
         <v>1061</v>
       </c>
-      <c r="Q35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S35" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="V35" s="26" t="n">
+      <c r="T35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="W35" s="26" t="n">
         <v>1961.43352768438</v>
       </c>
-      <c r="W35" s="26" t="n">
+      <c r="X35" s="26" t="n">
         <v>8</v>
-      </c>
-      <c r="X35" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y35" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z35" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4576,7 +4682,7 @@
         <v>0.992113480858685</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J36" s="11" t="n">
         <v>8.32</v>
@@ -4586,41 +4692,44 @@
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="18"/>
+      <c r="N36" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O36" s="18"/>
-      <c r="P36" s="9" t="n">
+      <c r="P36" s="18"/>
+      <c r="Q36" s="9" t="n">
         <v>1061</v>
       </c>
-      <c r="Q36" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R36" s="9" t="s">
+      <c r="R36" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S36" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="V36" s="26" t="n">
+      <c r="T36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="W36" s="26" t="n">
         <v>1942.44405832682</v>
       </c>
-      <c r="W36" s="26" t="n">
+      <c r="X36" s="26" t="n">
         <v>5</v>
-      </c>
-      <c r="X36" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y36" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z36" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z36" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA36" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4646,7 +4755,7 @@
         <v>0.484772419166571</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J37" s="11" t="n">
         <v>7.9475</v>
@@ -4656,41 +4765,44 @@
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="18"/>
+      <c r="N37" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O37" s="18"/>
-      <c r="P37" s="9" t="n">
+      <c r="P37" s="18"/>
+      <c r="Q37" s="9" t="n">
         <v>2025</v>
       </c>
-      <c r="Q37" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="V37" s="26" t="n">
+      <c r="T37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W37" s="26" t="n">
         <v>1998.03734293547</v>
       </c>
-      <c r="W37" s="26" t="n">
+      <c r="X37" s="26" t="n">
         <v>7</v>
-      </c>
-      <c r="X37" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y37" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z37" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA37" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4716,7 +4828,7 @@
         <v>0.845352180645646</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J38" s="11" t="n">
         <v>8.29</v>
@@ -4726,41 +4838,44 @@
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="18"/>
+      <c r="N38" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O38" s="18"/>
-      <c r="P38" s="9" t="n">
+      <c r="P38" s="18"/>
+      <c r="Q38" s="9" t="n">
         <v>977</v>
       </c>
-      <c r="Q38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R38" s="9" t="s">
+      <c r="R38" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S38" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="V38" s="26" t="n">
+      <c r="T38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W38" s="26" t="n">
         <v>1942.56405824485</v>
       </c>
-      <c r="W38" s="26" t="n">
+      <c r="X38" s="26" t="n">
         <v>7</v>
-      </c>
-      <c r="X38" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y38" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z38" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z38" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA38" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4786,7 +4901,7 @@
         <v>0.897969538593683</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J39" s="11" t="n">
         <v>7.675</v>
@@ -4796,41 +4911,44 @@
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
-      <c r="N39" s="18"/>
+      <c r="N39" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O39" s="18"/>
-      <c r="P39" s="9" t="n">
+      <c r="P39" s="18"/>
+      <c r="Q39" s="9" t="n">
         <v>3972</v>
       </c>
-      <c r="Q39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R39" s="9" t="s">
+      <c r="R39" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="V39" s="26" t="n">
+      <c r="T39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W39" s="26" t="n">
         <v>1968.49657093138</v>
       </c>
-      <c r="W39" s="26" t="n">
+      <c r="X39" s="26" t="n">
         <v>6</v>
-      </c>
-      <c r="X39" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y39" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z39" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z39" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA39" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4856,7 +4974,7 @@
         <v>0.680546383196472</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J40" s="11" t="n">
         <v>7.95</v>
@@ -4866,41 +4984,44 @@
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="18"/>
+      <c r="N40" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O40" s="18"/>
-      <c r="P40" s="9" t="n">
+      <c r="P40" s="18"/>
+      <c r="Q40" s="9" t="n">
         <v>1985</v>
       </c>
-      <c r="Q40" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R40" s="9" t="s">
+      <c r="R40" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="V40" s="26" t="n">
+      <c r="T40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W40" s="26" t="n">
         <v>1958.65714262079</v>
       </c>
-      <c r="W40" s="26" t="n">
+      <c r="X40" s="26" t="n">
         <v>7</v>
-      </c>
-      <c r="X40" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y40" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z40" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z40" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA40" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4926,7 +5047,7 @@
         <v>0.252085779781898</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J41" s="11" t="n">
         <v>7.96</v>
@@ -4936,41 +5057,44 @@
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="18"/>
+      <c r="N41" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O41" s="18"/>
-      <c r="P41" s="9" t="n">
+      <c r="P41" s="18"/>
+      <c r="Q41" s="9" t="n">
         <v>1968</v>
       </c>
-      <c r="Q41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R41" s="9" t="s">
+      <c r="R41" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S41" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="V41" s="26" t="n">
+      <c r="T41" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="W41" s="26" t="n">
         <v>1931.961916268</v>
       </c>
-      <c r="W41" s="26" t="n">
+      <c r="X41" s="26" t="n">
         <v>5</v>
-      </c>
-      <c r="X41" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y41" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z41" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z41" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA41" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>2014</v>
       </c>
@@ -4996,7 +5120,7 @@
         <v>0.437835170762512</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J42" s="11" t="n">
         <v>7.685</v>
@@ -5006,41 +5130,44 @@
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="18"/>
+      <c r="N42" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O42" s="18"/>
-      <c r="P42" s="9" t="n">
+      <c r="P42" s="18"/>
+      <c r="Q42" s="9" t="n">
         <v>2015</v>
       </c>
-      <c r="Q42" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R42" s="9" t="s">
+      <c r="R42" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="V42" s="26" t="n">
+      <c r="T42" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="W42" s="26" t="n">
         <v>1966.16042768144</v>
       </c>
-      <c r="W42" s="26" t="n">
+      <c r="X42" s="26" t="n">
         <v>7</v>
-      </c>
-      <c r="X42" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y42" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z42" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z42" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA42" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>2014</v>
       </c>
@@ -5066,7 +5193,7 @@
         <v>0.540340668920138</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J43" s="11" t="n">
         <v>7.6575</v>
@@ -5076,41 +5203,44 @@
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="18"/>
+      <c r="N43" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O43" s="18"/>
-      <c r="P43" s="9" t="n">
+      <c r="P43" s="18"/>
+      <c r="Q43" s="9" t="n">
         <v>4057</v>
       </c>
-      <c r="Q43" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R43" s="9" t="s">
+      <c r="R43" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S43" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="V43" s="26" t="n">
+      <c r="T43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W43" s="26" t="n">
         <v>1960.10859937699</v>
       </c>
-      <c r="W43" s="26" t="n">
+      <c r="X43" s="26" t="n">
         <v>6</v>
-      </c>
-      <c r="X43" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y43" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z43" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA43" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>2014</v>
       </c>
@@ -5136,7 +5266,7 @@
         <v>1.45622849532461</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J44" s="11" t="n">
         <v>8.27</v>
@@ -5146,41 +5276,44 @@
       </c>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="18"/>
+      <c r="N44" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O44" s="18"/>
-      <c r="P44" s="9" t="n">
+      <c r="P44" s="18"/>
+      <c r="Q44" s="9" t="n">
         <v>962</v>
       </c>
-      <c r="Q44" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R44" s="9" t="s">
+      <c r="R44" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S44" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="V44" s="26" t="n">
+      <c r="T44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W44" s="26" t="n">
         <v>1866.56979875237</v>
       </c>
-      <c r="W44" s="26" t="n">
+      <c r="X44" s="26" t="n">
         <v>6</v>
-      </c>
-      <c r="X44" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y44" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z44" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z44" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>2014</v>
       </c>
@@ -5206,7 +5339,7 @@
         <v>0.744428120640845</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J45" s="11" t="n">
         <v>8.255</v>
@@ -5216,41 +5349,44 @@
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="18"/>
+      <c r="N45" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O45" s="18"/>
-      <c r="P45" s="9" t="n">
+      <c r="P45" s="18"/>
+      <c r="Q45" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="Q45" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R45" s="9" t="s">
+      <c r="R45" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S45" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="V45" s="26" t="n">
+      <c r="T45" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W45" s="26" t="n">
         <v>2279.67022713169</v>
       </c>
-      <c r="W45" s="26" t="n">
+      <c r="X45" s="26" t="n">
         <v>4</v>
-      </c>
-      <c r="X45" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y45" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z45" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z45" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA45" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>2014</v>
       </c>
@@ -5276,7 +5412,7 @@
         <v>0.43161549412762</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J46" s="11" t="n">
         <v>7.63</v>
@@ -5286,41 +5422,44 @@
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="18"/>
+      <c r="N46" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O46" s="18"/>
-      <c r="P46" s="9" t="n">
+      <c r="P46" s="18"/>
+      <c r="Q46" s="9" t="n">
         <v>898</v>
       </c>
-      <c r="Q46" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R46" s="9" t="s">
+      <c r="R46" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S46" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="V46" s="26" t="n">
+      <c r="T46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="W46" s="26" t="n">
         <v>1914.59543737737</v>
       </c>
-      <c r="W46" s="26" t="n">
+      <c r="X46" s="26" t="n">
         <v>8</v>
-      </c>
-      <c r="X46" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y46" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z46" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z46" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA46" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>2014</v>
       </c>
@@ -5346,7 +5485,7 @@
         <v>0.844776425818737</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J47" s="11" t="n">
         <v>8.26</v>
@@ -5356,41 +5495,44 @@
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="18"/>
+      <c r="N47" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O47" s="18"/>
-      <c r="P47" s="9" t="n">
+      <c r="P47" s="18"/>
+      <c r="Q47" s="9" t="n">
         <v>3908</v>
       </c>
-      <c r="Q47" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R47" s="9" t="s">
+      <c r="R47" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="V47" s="26" t="n">
+      <c r="T47" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W47" s="26" t="n">
         <v>1925.34822337095</v>
       </c>
-      <c r="W47" s="26" t="n">
+      <c r="X47" s="26" t="n">
         <v>6</v>
-      </c>
-      <c r="X47" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y47" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z47" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA47" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>2014</v>
       </c>
@@ -5416,7 +5558,7 @@
         <v>0.521060652777363</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J48" s="11" t="n">
         <v>8.65</v>
@@ -5426,41 +5568,44 @@
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
-      <c r="N48" s="18"/>
+      <c r="N48" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O48" s="18"/>
-      <c r="P48" s="9" t="n">
+      <c r="P48" s="18"/>
+      <c r="Q48" s="9" t="n">
         <v>966</v>
       </c>
-      <c r="Q48" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R48" s="9" t="s">
+      <c r="R48" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S48" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="V48" s="26" t="n">
+      <c r="T48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W48" s="26" t="n">
         <v>1904.09067978665</v>
       </c>
-      <c r="W48" s="26" t="n">
+      <c r="X48" s="26" t="n">
         <v>6</v>
-      </c>
-      <c r="X48" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y48" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z48" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z48" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA48" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>2014</v>
       </c>
@@ -5486,7 +5631,7 @@
         <v>1.35241749630965</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J49" s="11" t="n">
         <v>7.67</v>
@@ -5496,41 +5641,44 @@
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="18"/>
+      <c r="N49" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O49" s="18"/>
-      <c r="P49" s="9" t="n">
+      <c r="P49" s="18"/>
+      <c r="Q49" s="9" t="n">
         <v>7993</v>
       </c>
-      <c r="Q49" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R49" s="9" t="s">
+      <c r="R49" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S49" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V49" s="26" t="n">
+      <c r="T49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W49" s="26" t="n">
         <v>1965.28241098855</v>
       </c>
-      <c r="W49" s="26" t="n">
+      <c r="X49" s="26" t="n">
         <v>5</v>
-      </c>
-      <c r="X49" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y49" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z49" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z49" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA49" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>2014</v>
       </c>
@@ -5557,7 +5705,7 @@
         <v>0.497406470553776</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J50" s="11" t="n">
         <v>7.6375</v>
@@ -5567,41 +5715,44 @@
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-      <c r="N50" s="18"/>
+      <c r="N50" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O50" s="18"/>
-      <c r="P50" s="9" t="n">
+      <c r="P50" s="18"/>
+      <c r="Q50" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="Q50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R50" s="9" t="s">
+      <c r="R50" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S50" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="V50" s="26" t="n">
+      <c r="T50" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W50" s="26" t="n">
         <v>1990.80602677368</v>
       </c>
-      <c r="W50" s="26" t="n">
+      <c r="X50" s="26" t="n">
         <v>6</v>
-      </c>
-      <c r="X50" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y50" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z50" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z50" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA50" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>2014</v>
       </c>
@@ -5628,7 +5779,7 @@
         <v>0.817774313326765</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J51" s="11" t="n">
         <v>8.27</v>
@@ -5638,41 +5789,44 @@
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="18"/>
+      <c r="N51" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="O51" s="18"/>
-      <c r="P51" s="9" t="n">
+      <c r="P51" s="18"/>
+      <c r="Q51" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="Q51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R51" s="9" t="s">
+      <c r="R51" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S51" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="V51" s="26" t="n">
+      <c r="T51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="W51" s="26" t="n">
         <v>1895.46691208208</v>
       </c>
-      <c r="W51" s="26" t="n">
+      <c r="X51" s="26" t="n">
         <v>6</v>
-      </c>
-      <c r="X51" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y51" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z51" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z51" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA51" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>2013</v>
       </c>
@@ -5698,7 +5852,7 @@
         <v>0.040013888</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J52" s="24" t="n">
         <v>7.84928571428572</v>
@@ -5708,43 +5862,46 @@
       </c>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="30" t="n">
+      <c r="N52" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O52" s="30" t="n">
         <v>1068.82205398334</v>
       </c>
-      <c r="O52" s="30" t="n">
+      <c r="P52" s="30" t="n">
         <v>10.5533707537325</v>
       </c>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R52" s="9" t="s">
+      <c r="Q52" s="29"/>
+      <c r="R52" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S52" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="V52" s="26" t="n">
+      <c r="T52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="W52" s="26" t="n">
         <v>367</v>
       </c>
-      <c r="W52" s="26" t="n">
+      <c r="X52" s="26" t="n">
         <v>18</v>
-      </c>
-      <c r="X52" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y52" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z52" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z52" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA52" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>2013</v>
       </c>
@@ -5770,7 +5927,7 @@
         <v>0.052111344</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J53" s="24" t="n">
         <v>7.934</v>
@@ -5780,43 +5937,46 @@
       </c>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="30" t="n">
+      <c r="N53" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O53" s="30" t="n">
         <v>2197.27883572184</v>
       </c>
-      <c r="O53" s="30" t="n">
+      <c r="P53" s="30" t="n">
         <v>7.32250906691457</v>
       </c>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R53" s="9" t="s">
+      <c r="Q53" s="29"/>
+      <c r="R53" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S53" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="V53" s="26" t="n">
+      <c r="T53" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W53" s="26" t="n">
         <v>361</v>
       </c>
-      <c r="W53" s="26" t="n">
+      <c r="X53" s="26" t="n">
         <v>15</v>
-      </c>
-      <c r="X53" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y53" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z53" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z53" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA53" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>2013</v>
       </c>
@@ -5842,7 +6002,7 @@
         <v>0.046876432</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J54" s="24" t="n">
         <v>7.934</v>
@@ -5852,43 +6012,46 @@
       </c>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="30" t="n">
+      <c r="N54" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O54" s="30" t="n">
         <v>2197.27883572184</v>
       </c>
-      <c r="O54" s="30" t="n">
+      <c r="P54" s="30" t="n">
         <v>7.32250906691457</v>
       </c>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R54" s="9" t="s">
+      <c r="Q54" s="29"/>
+      <c r="R54" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S54" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="V54" s="26" t="n">
+      <c r="T54" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W54" s="26" t="n">
         <v>361</v>
       </c>
-      <c r="W54" s="26" t="n">
+      <c r="X54" s="26" t="n">
         <v>15</v>
-      </c>
-      <c r="X54" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y54" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z54" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z54" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA54" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>2013</v>
       </c>
@@ -5914,7 +6077,7 @@
         <v>0.060398784</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J55" s="24" t="n">
         <v>7.8784</v>
@@ -5924,43 +6087,46 @@
       </c>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="30" t="n">
+      <c r="N55" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O55" s="30" t="n">
         <v>2998</v>
       </c>
-      <c r="O55" s="30" t="n">
+      <c r="P55" s="30" t="n">
         <v>14.6018615513314</v>
       </c>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R55" s="9" t="s">
+      <c r="Q55" s="29"/>
+      <c r="R55" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S55" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="V55" s="26" t="n">
+      <c r="T55" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W55" s="26" t="n">
         <v>367</v>
       </c>
-      <c r="W55" s="26" t="n">
+      <c r="X55" s="26" t="n">
         <v>14</v>
-      </c>
-      <c r="X55" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y55" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z55" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z55" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA55" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>2013</v>
       </c>
@@ -5986,7 +6152,7 @@
         <v>0.05711984</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J56" s="24" t="n">
         <v>7.8784</v>
@@ -5996,43 +6162,46 @@
       </c>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="30" t="n">
+      <c r="N56" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O56" s="30" t="n">
         <v>2998</v>
       </c>
-      <c r="O56" s="30" t="n">
+      <c r="P56" s="30" t="n">
         <v>14.6018615513314</v>
       </c>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R56" s="9" t="s">
+      <c r="Q56" s="29"/>
+      <c r="R56" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="V56" s="26" t="n">
+      <c r="T56" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W56" s="26" t="n">
         <v>367</v>
       </c>
-      <c r="W56" s="26" t="n">
+      <c r="X56" s="26" t="n">
         <v>14</v>
-      </c>
-      <c r="X56" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y56" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z56" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z56" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA56" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>2013</v>
       </c>
@@ -6058,7 +6227,7 @@
         <v>0.067849504</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J57" s="24" t="n">
         <v>7.89785714285714</v>
@@ -6068,43 +6237,46 @@
       </c>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="30" t="n">
+      <c r="N57" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O57" s="30" t="n">
         <v>4180.52700588908</v>
       </c>
-      <c r="O57" s="30" t="n">
+      <c r="P57" s="30" t="n">
         <v>20.3911103568099</v>
       </c>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R57" s="9" t="s">
+      <c r="Q57" s="29"/>
+      <c r="R57" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="V57" s="26" t="n">
+      <c r="T57" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="W57" s="26" t="n">
         <v>359</v>
       </c>
-      <c r="W57" s="26" t="n">
+      <c r="X57" s="26" t="n">
         <v>15</v>
-      </c>
-      <c r="X57" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y57" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z57" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z57" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA57" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
         <v>2013</v>
       </c>
@@ -6130,7 +6302,7 @@
         <v>0.06954688</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J58" s="24" t="n">
         <v>7.89785714285714</v>
@@ -6140,43 +6312,46 @@
       </c>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="30" t="n">
+      <c r="N58" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O58" s="30" t="n">
         <v>4180.52700588908</v>
       </c>
-      <c r="O58" s="30" t="n">
+      <c r="P58" s="30" t="n">
         <v>20.3911103568099</v>
       </c>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R58" s="9" t="s">
+      <c r="Q58" s="29"/>
+      <c r="R58" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S58" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="V58" s="26" t="n">
+      <c r="T58" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="W58" s="26" t="n">
         <v>359</v>
       </c>
-      <c r="W58" s="26" t="n">
+      <c r="X58" s="26" t="n">
         <v>15</v>
-      </c>
-      <c r="X58" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y58" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z58" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z58" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA58" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>2013</v>
       </c>
@@ -6202,7 +6377,7 @@
         <v>0.062360528</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J59" s="24" t="n">
         <v>7.89785714285714</v>
@@ -6212,43 +6387,46 @@
       </c>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="30" t="n">
+      <c r="N59" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O59" s="30" t="n">
         <v>4180.52700588908</v>
       </c>
-      <c r="O59" s="30" t="n">
+      <c r="P59" s="30" t="n">
         <v>20.3911103568099</v>
       </c>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R59" s="9" t="s">
+      <c r="Q59" s="29"/>
+      <c r="R59" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S59" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="V59" s="26" t="n">
+      <c r="T59" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="W59" s="26" t="n">
         <v>359</v>
       </c>
-      <c r="W59" s="26" t="n">
+      <c r="X59" s="26" t="n">
         <v>15</v>
-      </c>
-      <c r="X59" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y59" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z59" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z59" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA59" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" s="22" customFormat="true" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>2007</v>
       </c>
@@ -6276,7 +6454,7 @@
         <v>0.80350793399941</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J60" s="11" t="n">
         <v>8.16</v>
@@ -6286,40 +6464,43 @@
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
-      <c r="N60" s="18" t="n">
+      <c r="N60" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O60" s="18" t="n">
         <v>2263</v>
       </c>
-      <c r="O60" s="18" t="n">
+      <c r="P60" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="R60" s="9" t="s">
-        <v>28</v>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="S60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="V60" s="9" t="n">
+      <c r="T60" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="W60" s="9" t="n">
         <f aca="false">416*C60/35</f>
         <v>404.114285714286</v>
       </c>
-      <c r="W60" s="26" t="n">
+      <c r="X60" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="X60" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y60" s="14"/>
-      <c r="Z60" s="9"/>
-    </row>
-    <row r="61" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y60" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="9"/>
+    </row>
+    <row r="61" s="22" customFormat="true" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
         <v>2007</v>
       </c>
@@ -6347,7 +6528,7 @@
         <v>0.613673399555751</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J61" s="11" t="n">
         <v>8.16</v>
@@ -6357,40 +6538,43 @@
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="18" t="n">
+      <c r="N61" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O61" s="18" t="n">
         <v>2263</v>
       </c>
-      <c r="O61" s="18" t="n">
+      <c r="P61" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="R61" s="9" t="s">
-        <v>28</v>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="S61" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="V61" s="9" t="n">
+      <c r="T61" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="W61" s="9" t="n">
         <f aca="false">416*C61/35</f>
         <v>404.114285714286</v>
       </c>
-      <c r="W61" s="26" t="n">
+      <c r="X61" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="X61" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="9"/>
-    </row>
-    <row r="62" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y61" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z61" s="14"/>
+      <c r="AA61" s="9"/>
+    </row>
+    <row r="62" s="22" customFormat="true" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="n">
         <v>2007</v>
       </c>
@@ -6418,7 +6602,7 @@
         <v>0.810957</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J62" s="11" t="n">
         <v>8.16</v>
@@ -6428,40 +6612,43 @@
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-      <c r="N62" s="18" t="n">
+      <c r="N62" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O62" s="18" t="n">
         <v>2263</v>
       </c>
-      <c r="O62" s="18" t="n">
+      <c r="P62" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="R62" s="9" t="s">
-        <v>28</v>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="S62" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="V62" s="9" t="n">
+      <c r="T62" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W62" s="9" t="n">
         <f aca="false">416*C62/35</f>
         <v>404.114285714286</v>
       </c>
-      <c r="W62" s="26" t="n">
+      <c r="X62" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="X62" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y62" s="14"/>
-      <c r="Z62" s="9"/>
-    </row>
-    <row r="63" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y62" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="9"/>
+    </row>
+    <row r="63" s="22" customFormat="true" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="n">
         <v>2007</v>
       </c>
@@ -6489,7 +6676,7 @@
         <v>0.621030604999197</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J63" s="11" t="n">
         <v>8.16</v>
@@ -6499,40 +6686,43 @@
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-      <c r="N63" s="18" t="n">
+      <c r="N63" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O63" s="18" t="n">
         <v>2263</v>
       </c>
-      <c r="O63" s="18" t="n">
+      <c r="P63" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="R63" s="9" t="s">
-        <v>28</v>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="S63" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="V63" s="9" t="n">
+      <c r="T63" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="W63" s="9" t="n">
         <f aca="false">416*C63/35</f>
         <v>404.114285714286</v>
       </c>
-      <c r="W63" s="26" t="n">
+      <c r="X63" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="X63" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="9"/>
-    </row>
-    <row r="64" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y63" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="9"/>
+    </row>
+    <row r="64" s="22" customFormat="true" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
         <v>2007</v>
       </c>
@@ -6560,7 +6750,7 @@
         <v>1.83062472087724</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J64" s="11" t="n">
         <v>8.16</v>
@@ -6570,40 +6760,43 @@
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
-      <c r="N64" s="18" t="n">
+      <c r="N64" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="O64" s="18" t="n">
         <v>2263</v>
       </c>
-      <c r="O64" s="18" t="n">
+      <c r="P64" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="R64" s="9" t="s">
-        <v>28</v>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="S64" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="V64" s="9" t="n">
+      <c r="T64" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="W64" s="9" t="n">
         <f aca="false">416*C64/35</f>
         <v>404.114285714286</v>
       </c>
-      <c r="W64" s="26" t="n">
+      <c r="X64" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="X64" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="9"/>
-    </row>
-    <row r="65" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y64" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z64" s="14"/>
+      <c r="AA64" s="9"/>
+    </row>
+    <row r="65" s="22" customFormat="true" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="n">
         <v>2007</v>
       </c>
@@ -6631,7 +6824,7 @@
         <v>0.895217371041322</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J65" s="11" t="n">
         <v>8.16</v>
@@ -6641,40 +6834,43 @@
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
-      <c r="N65" s="18" t="n">
+      <c r="N65" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="O65" s="18" t="n">
         <v>2263</v>
       </c>
-      <c r="O65" s="18" t="n">
+      <c r="P65" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="R65" s="9" t="s">
-        <v>28</v>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="S65" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="V65" s="9" t="n">
+      <c r="T65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W65" s="9" t="n">
         <f aca="false">416*C65/35</f>
         <v>404.114285714286</v>
       </c>
-      <c r="W65" s="26" t="n">
+      <c r="X65" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="X65" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y65" s="14"/>
-      <c r="Z65" s="9"/>
-    </row>
-    <row r="66" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y65" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="9"/>
+    </row>
+    <row r="66" s="22" customFormat="true" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
         <v>2007</v>
       </c>
@@ -6702,7 +6898,7 @@
         <v>1.29910003868758</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J66" s="11" t="n">
         <v>8.16</v>
@@ -6712,40 +6908,43 @@
       </c>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
-      <c r="N66" s="18" t="n">
+      <c r="N66" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="O66" s="18" t="n">
         <v>2263</v>
       </c>
-      <c r="O66" s="18" t="n">
+      <c r="P66" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="R66" s="9" t="s">
-        <v>28</v>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="S66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="V66" s="9" t="n">
+      <c r="T66" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="W66" s="9" t="n">
         <f aca="false">416*C66/35</f>
         <v>404.114285714286</v>
       </c>
-      <c r="W66" s="26" t="n">
+      <c r="X66" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="X66" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y66" s="14"/>
-      <c r="Z66" s="9"/>
-    </row>
-    <row r="67" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y66" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="9"/>
+    </row>
+    <row r="67" s="22" customFormat="true" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
         <v>2007</v>
       </c>
@@ -6773,7 +6972,7 @@
         <v>0.302654919008432</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J67" s="11" t="n">
         <v>8.44</v>
@@ -6783,40 +6982,43 @@
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
-      <c r="N67" s="18" t="n">
+      <c r="N67" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="O67" s="18" t="n">
         <v>2498</v>
       </c>
-      <c r="O67" s="18" t="n">
+      <c r="P67" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="R67" s="9" t="s">
-        <v>28</v>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="S67" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="V67" s="9" t="n">
+      <c r="T67" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="W67" s="9" t="n">
         <f aca="false">416*C67/35</f>
         <v>404.114285714286</v>
       </c>
-      <c r="W67" s="26" t="n">
+      <c r="X67" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="X67" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y67" s="14"/>
-      <c r="Z67" s="9"/>
-    </row>
-    <row r="68" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y67" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="9"/>
+    </row>
+    <row r="68" s="22" customFormat="true" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
         <v>2007</v>
       </c>
@@ -6844,7 +7046,7 @@
         <v>2.21</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J68" s="11" t="n">
         <v>8.38</v>
@@ -6854,40 +7056,43 @@
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
-      <c r="N68" s="18" t="n">
+      <c r="N68" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="O68" s="18" t="n">
         <v>2498</v>
       </c>
-      <c r="O68" s="18" t="n">
+      <c r="P68" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="R68" s="9" t="s">
-        <v>28</v>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="S68" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="V68" s="9" t="n">
+      <c r="T68" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="W68" s="9" t="n">
         <f aca="false">416*C68/35</f>
         <v>404.114285714286</v>
       </c>
-      <c r="W68" s="26" t="n">
+      <c r="X68" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="X68" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y68" s="14"/>
-      <c r="Z68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y68" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="9"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="33" t="n">
         <v>2008</v>
       </c>
@@ -6915,7 +7120,7 @@
         <v>0.196886717662105</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="34"/>
@@ -6923,40 +7128,43 @@
         <v>8.02736231666667</v>
       </c>
       <c r="M69" s="36"/>
-      <c r="N69" s="36" t="n">
+      <c r="N69" s="15" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="O69" s="36" t="n">
         <v>2058.16666666667</v>
       </c>
-      <c r="O69" s="18"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R69" s="9" t="s">
-        <v>28</v>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="S69" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T69" s="9"/>
+      <c r="T69" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="U69" s="9"/>
-      <c r="V69" s="9" t="n">
+      <c r="V69" s="9"/>
+      <c r="W69" s="9" t="n">
         <f aca="false">416*C69/35</f>
         <v>355.382857142857</v>
       </c>
-      <c r="W69" s="9" t="n">
+      <c r="X69" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X69" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y69" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z69" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z69" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA69" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="33" t="n">
         <v>2008</v>
       </c>
@@ -6984,7 +7192,7 @@
         <v>0.177905597851315</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="34"/>
@@ -6992,40 +7200,43 @@
         <v>8.02736231666667</v>
       </c>
       <c r="M70" s="36"/>
-      <c r="N70" s="36" t="n">
+      <c r="N70" s="15" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="O70" s="36" t="n">
         <v>2058.16666666667</v>
       </c>
-      <c r="O70" s="18"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R70" s="9" t="s">
-        <v>28</v>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="S70" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T70" s="9"/>
+      <c r="T70" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="U70" s="9"/>
-      <c r="V70" s="9" t="n">
+      <c r="V70" s="9"/>
+      <c r="W70" s="9" t="n">
         <f aca="false">416*C70/35</f>
         <v>355.382857142857</v>
       </c>
-      <c r="W70" s="9" t="n">
+      <c r="X70" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X70" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y70" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z70" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z70" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA70" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="33" t="n">
         <v>2008</v>
       </c>
@@ -7053,7 +7264,7 @@
         <v>0.209789344021167</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="34"/>
@@ -7061,40 +7272,43 @@
         <v>7.9888817</v>
       </c>
       <c r="M71" s="36"/>
-      <c r="N71" s="36" t="n">
+      <c r="N71" s="15" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="O71" s="36" t="n">
         <v>2172.85714285714</v>
       </c>
-      <c r="O71" s="18"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R71" s="9" t="s">
-        <v>28</v>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="S71" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T71" s="9"/>
+      <c r="T71" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="U71" s="9"/>
-      <c r="V71" s="9" t="n">
+      <c r="V71" s="9"/>
+      <c r="W71" s="9" t="n">
         <f aca="false">416*C71/35</f>
         <v>374.4</v>
       </c>
-      <c r="W71" s="9" t="n">
+      <c r="X71" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X71" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y71" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z71" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z71" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA71" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="33" t="n">
         <v>2008</v>
       </c>
@@ -7122,7 +7336,7 @@
         <v>0.228729871504444</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="34"/>
@@ -7130,40 +7344,43 @@
         <v>7.9888817</v>
       </c>
       <c r="M72" s="36"/>
-      <c r="N72" s="36" t="n">
+      <c r="N72" s="15" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="O72" s="36" t="n">
         <v>2172.85714285714</v>
       </c>
-      <c r="O72" s="18"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R72" s="9" t="s">
-        <v>28</v>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="S72" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T72" s="9"/>
+      <c r="T72" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="U72" s="9"/>
-      <c r="V72" s="9" t="n">
+      <c r="V72" s="9"/>
+      <c r="W72" s="9" t="n">
         <f aca="false">416*C72/35</f>
         <v>374.4</v>
       </c>
-      <c r="W72" s="9" t="n">
+      <c r="X72" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X72" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y72" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z72" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z72" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA72" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="33" t="n">
         <v>2008</v>
       </c>
@@ -7191,7 +7408,7 @@
         <v>0.285689005402159</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="34"/>
@@ -7199,40 +7416,43 @@
         <v>8.00375063333333</v>
       </c>
       <c r="M73" s="36"/>
-      <c r="N73" s="36" t="n">
+      <c r="N73" s="15" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="O73" s="36" t="n">
         <v>2257</v>
       </c>
-      <c r="O73" s="18"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R73" s="9" t="s">
-        <v>28</v>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="S73" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T73" s="9"/>
+      <c r="T73" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="U73" s="9"/>
-      <c r="V73" s="9" t="n">
+      <c r="V73" s="9"/>
+      <c r="W73" s="9" t="n">
         <f aca="false">416*C73/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W73" s="9" t="n">
+      <c r="X73" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X73" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y73" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z73" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z73" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA73" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="33" t="n">
         <v>2008</v>
       </c>
@@ -7260,7 +7480,7 @@
         <v>0.250537060724402</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J74" s="11"/>
       <c r="K74" s="34"/>
@@ -7268,40 +7488,43 @@
         <v>8.00375063333333</v>
       </c>
       <c r="M74" s="36"/>
-      <c r="N74" s="36" t="n">
+      <c r="N74" s="15" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="O74" s="36" t="n">
         <v>2257</v>
       </c>
-      <c r="O74" s="18"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R74" s="9" t="s">
-        <v>28</v>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="S74" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T74" s="9"/>
+      <c r="T74" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="U74" s="9"/>
-      <c r="V74" s="9" t="n">
+      <c r="V74" s="9"/>
+      <c r="W74" s="9" t="n">
         <f aca="false">416*C74/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W74" s="9" t="n">
+      <c r="X74" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X74" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y74" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z74" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z74" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA74" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="33" t="n">
         <v>2008</v>
       </c>
@@ -7329,7 +7552,7 @@
         <v>0.247034498977792</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="34"/>
@@ -7337,40 +7560,43 @@
         <v>7.976921225</v>
       </c>
       <c r="M75" s="36"/>
-      <c r="N75" s="36" t="n">
+      <c r="N75" s="15" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="O75" s="36" t="n">
         <v>2395.75</v>
       </c>
-      <c r="O75" s="18"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R75" s="9" t="s">
-        <v>28</v>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="S75" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T75" s="9"/>
+      <c r="T75" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="U75" s="9"/>
-      <c r="V75" s="9" t="n">
+      <c r="V75" s="9"/>
+      <c r="W75" s="9" t="n">
         <f aca="false">416*C75/35</f>
         <v>420.754285714286</v>
       </c>
-      <c r="W75" s="9" t="n">
+      <c r="X75" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X75" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y75" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z75" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z75" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA75" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="n">
         <v>2000</v>
       </c>
@@ -7399,7 +7625,7 @@
         <v>0.22</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J76" s="9" t="n">
         <v>8.22</v>
@@ -7409,44 +7635,47 @@
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
-      <c r="N76" s="18" t="n">
+      <c r="N76" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O76" s="18" t="n">
         <v>2268</v>
       </c>
-      <c r="O76" s="18" t="n">
+      <c r="P76" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R76" s="9" t="s">
-        <v>28</v>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="S76" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="V76" s="9" t="n">
+      <c r="T76" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="W76" s="9" t="n">
         <f aca="false">416*C76/35</f>
         <v>401.737142857143</v>
       </c>
-      <c r="W76" s="9" t="n">
+      <c r="X76" s="9" t="n">
         <v>11</v>
-      </c>
-      <c r="X76" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y76" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z76" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z76" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA76" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
         <v>2000</v>
       </c>
@@ -7475,7 +7704,7 @@
         <v>0.66</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J77" s="9" t="n">
         <v>8.17</v>
@@ -7485,44 +7714,47 @@
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
-      <c r="N77" s="18" t="n">
+      <c r="N77" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="O77" s="18" t="n">
         <v>2260</v>
       </c>
-      <c r="O77" s="18" t="n">
+      <c r="P77" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>28</v>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="S77" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="V77" s="9" t="n">
+      <c r="T77" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="W77" s="9" t="n">
         <f aca="false">416*C77/35</f>
         <v>400.548571428571</v>
       </c>
-      <c r="W77" s="9" t="n">
+      <c r="X77" s="9" t="n">
         <v>14</v>
-      </c>
-      <c r="X77" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y77" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z77" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z77" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA77" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
         <v>2000</v>
       </c>
@@ -7551,7 +7783,7 @@
         <v>0.78</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J78" s="9" t="n">
         <v>8.21</v>
@@ -7561,44 +7793,47 @@
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
-      <c r="N78" s="18" t="n">
+      <c r="N78" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="O78" s="18" t="n">
         <v>2265</v>
       </c>
-      <c r="O78" s="18" t="n">
+      <c r="P78" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R78" s="9" t="s">
-        <v>28</v>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="S78" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="V78" s="9" t="n">
+      <c r="T78" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="W78" s="9" t="n">
         <f aca="false">416*C78/35</f>
         <v>400.548571428571</v>
       </c>
-      <c r="W78" s="9" t="n">
+      <c r="X78" s="9" t="n">
         <v>16</v>
-      </c>
-      <c r="X78" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y78" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z78" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z78" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA78" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
         <v>2000</v>
       </c>
@@ -7627,7 +7862,7 @@
         <v>1.8</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J79" s="35" t="n">
         <v>7.74</v>
@@ -7637,44 +7872,47 @@
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
-      <c r="N79" s="18" t="n">
+      <c r="N79" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="O79" s="18" t="n">
         <v>2047</v>
       </c>
-      <c r="O79" s="18" t="n">
+      <c r="P79" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R79" s="9" t="s">
-        <v>28</v>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="S79" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="V79" s="9" t="n">
+      <c r="T79" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W79" s="9" t="n">
         <f aca="false">416*C79/35</f>
         <v>400.548571428571</v>
       </c>
-      <c r="W79" s="9" t="n">
+      <c r="X79" s="9" t="n">
         <v>6</v>
-      </c>
-      <c r="X79" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y79" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z79" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z79" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA79" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
         <v>2000</v>
       </c>
@@ -7703,7 +7941,7 @@
         <v>2.98</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J80" s="35" t="n">
         <v>7.93</v>
@@ -7713,44 +7951,47 @@
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
-      <c r="N80" s="18" t="n">
+      <c r="N80" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="O80" s="18" t="n">
         <v>2122</v>
       </c>
-      <c r="O80" s="18" t="n">
+      <c r="P80" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R80" s="9" t="s">
-        <v>28</v>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="S80" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="V80" s="9" t="n">
+      <c r="T80" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="W80" s="9" t="n">
         <f aca="false">416*C80/35</f>
         <v>400.548571428571</v>
       </c>
-      <c r="W80" s="9" t="n">
+      <c r="X80" s="9" t="n">
         <v>5</v>
-      </c>
-      <c r="X80" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y80" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z80" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z80" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA80" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
         <v>2000</v>
       </c>
@@ -7778,7 +8019,7 @@
         <v>1.1</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J81" s="17" t="n">
         <v>8.24</v>
@@ -7788,44 +8029,47 @@
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
-      <c r="N81" s="18" t="n">
+      <c r="N81" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="O81" s="18" t="n">
         <v>2268</v>
       </c>
-      <c r="O81" s="18" t="n">
+      <c r="P81" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>28</v>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="S81" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="V81" s="9" t="n">
+      <c r="T81" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="W81" s="9" t="n">
         <f aca="false">416*C81/35</f>
         <v>402.925714285714</v>
       </c>
-      <c r="W81" s="9" t="n">
+      <c r="X81" s="9" t="n">
         <v>41</v>
-      </c>
-      <c r="X81" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y81" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z81" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z81" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA81" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
         <v>2000</v>
       </c>
@@ -7853,7 +8097,7 @@
         <v>1.42</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J82" s="35" t="n">
         <v>8.41</v>
@@ -7863,44 +8107,47 @@
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
-      <c r="N82" s="18" t="n">
+      <c r="N82" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="O82" s="18" t="n">
         <v>2400</v>
       </c>
-      <c r="O82" s="18" t="n">
+      <c r="P82" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R82" s="9" t="s">
-        <v>28</v>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="S82" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="V82" s="9" t="n">
+      <c r="T82" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="W82" s="9" t="n">
         <f aca="false">416*C82/35</f>
         <v>401.737142857143</v>
       </c>
-      <c r="W82" s="9" t="n">
+      <c r="X82" s="9" t="n">
         <v>40</v>
-      </c>
-      <c r="X82" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y82" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z82" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z82" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA82" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
         <v>2000</v>
       </c>
@@ -7929,7 +8176,7 @@
         <v>0.92</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J83" s="35" t="n">
         <v>8.56</v>
@@ -7939,44 +8186,47 @@
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
-      <c r="N83" s="18" t="n">
+      <c r="N83" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="O83" s="18" t="n">
         <v>2546</v>
       </c>
-      <c r="O83" s="18" t="n">
+      <c r="P83" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R83" s="9" t="s">
-        <v>28</v>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="S83" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="V83" s="9" t="n">
+      <c r="T83" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W83" s="9" t="n">
         <f aca="false">416*C83/35</f>
         <v>399.36</v>
       </c>
-      <c r="W83" s="9" t="n">
+      <c r="X83" s="9" t="n">
         <v>29</v>
-      </c>
-      <c r="X83" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y83" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z83" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z83" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA83" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
         <v>2000</v>
       </c>
@@ -8005,7 +8255,7 @@
         <v>0.68</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J84" s="35" t="n">
         <v>8.66</v>
@@ -8015,44 +8265,47 @@
       </c>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
-      <c r="N84" s="18" t="n">
+      <c r="N84" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="O84" s="18" t="n">
         <v>2671</v>
       </c>
-      <c r="O84" s="18" t="n">
+      <c r="P84" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R84" s="9" t="s">
-        <v>28</v>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="S84" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="V84" s="9" t="n">
+      <c r="T84" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="W84" s="9" t="n">
         <f aca="false">416*C84/35</f>
         <v>399.36</v>
       </c>
-      <c r="W84" s="9" t="n">
+      <c r="X84" s="9" t="n">
         <v>25</v>
-      </c>
-      <c r="X84" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y84" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z84" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z84" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA84" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="n">
         <v>2008</v>
       </c>
@@ -8081,7 +8334,7 @@
         <v>0.174219444304158</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
@@ -8089,42 +8342,45 @@
         <v>8.08781268125</v>
       </c>
       <c r="M85" s="9"/>
-      <c r="N85" s="36" t="n">
+      <c r="N85" s="29" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="O85" s="36" t="n">
         <v>2264.375</v>
       </c>
-      <c r="O85" s="18"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R85" s="9" t="s">
-        <v>28</v>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="S85" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T85" s="9"/>
-      <c r="U85" s="37" t="n">
+      <c r="T85" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U85" s="9"/>
+      <c r="V85" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="V85" s="9" t="n">
+      <c r="W85" s="9" t="n">
         <f aca="false">416*C85/35</f>
         <v>393.417142857143</v>
       </c>
-      <c r="W85" s="9" t="n">
+      <c r="X85" s="9" t="n">
         <v>19</v>
-      </c>
-      <c r="X85" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y85" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z85" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z85" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA85" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="n">
         <v>2008</v>
       </c>
@@ -8153,7 +8409,7 @@
         <v>0.147492649588081</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
@@ -8161,42 +8417,45 @@
         <v>8.0318918</v>
       </c>
       <c r="M86" s="9"/>
-      <c r="N86" s="36" t="n">
+      <c r="N86" s="29" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="O86" s="36" t="n">
         <v>2263.11111111111</v>
       </c>
-      <c r="O86" s="18"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R86" s="9" t="s">
-        <v>28</v>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="S86" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T86" s="9"/>
-      <c r="U86" s="38" t="n">
+      <c r="T86" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U86" s="9"/>
+      <c r="V86" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="V86" s="9" t="n">
+      <c r="W86" s="9" t="n">
         <f aca="false">416*C86/35</f>
         <v>392.888888888889</v>
       </c>
-      <c r="W86" s="9" t="n">
+      <c r="X86" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X86" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y86" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z86" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z86" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA86" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="n">
         <v>2008</v>
       </c>
@@ -8225,7 +8484,7 @@
         <v>0.285689005402158</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -8233,42 +8492,45 @@
         <v>8.00375063333333</v>
       </c>
       <c r="M87" s="3"/>
-      <c r="N87" s="36" t="n">
+      <c r="N87" s="29" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="O87" s="36" t="n">
         <v>2257</v>
       </c>
-      <c r="O87" s="3"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R87" s="9" t="s">
-        <v>28</v>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="S87" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T87" s="9"/>
-      <c r="U87" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="V87" s="9" t="n">
+      <c r="T87" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U87" s="9"/>
+      <c r="V87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="W87" s="9" t="n">
         <f aca="false">416*C87/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W87" s="9" t="n">
+      <c r="X87" s="9" t="n">
         <v>16</v>
-      </c>
-      <c r="X87" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y87" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z87" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z87" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA87" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="n">
         <v>2008</v>
       </c>
@@ -8297,7 +8559,7 @@
         <v>0.250537060724402</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -8305,42 +8567,45 @@
         <v>8.00375063333333</v>
       </c>
       <c r="M88" s="3"/>
-      <c r="N88" s="36" t="n">
+      <c r="N88" s="29" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="O88" s="36" t="n">
         <v>2257</v>
       </c>
-      <c r="O88" s="9"/>
       <c r="P88" s="9"/>
-      <c r="Q88" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R88" s="9" t="s">
-        <v>28</v>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="S88" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T88" s="9"/>
-      <c r="U88" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="V88" s="9" t="n">
+      <c r="T88" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U88" s="9"/>
+      <c r="V88" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="W88" s="9" t="n">
         <f aca="false">416*C88/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W88" s="9" t="n">
+      <c r="X88" s="9" t="n">
         <v>16</v>
-      </c>
-      <c r="X88" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y88" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z88" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z88" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA88" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="n">
         <v>2008</v>
       </c>
@@ -8369,7 +8634,7 @@
         <v>0.219691113026497</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
@@ -8377,42 +8642,45 @@
         <v>7.943339325</v>
       </c>
       <c r="M89" s="34"/>
-      <c r="N89" s="36" t="n">
+      <c r="N89" s="29" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="O89" s="36" t="n">
         <v>2247.75</v>
       </c>
-      <c r="O89" s="36"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R89" s="9" t="s">
-        <v>28</v>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="S89" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T89" s="9"/>
-      <c r="U89" s="38" t="n">
+      <c r="T89" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U89" s="9"/>
+      <c r="V89" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="V89" s="9" t="n">
+      <c r="W89" s="9" t="n">
         <f aca="false">416*C89/35</f>
         <v>392.228571428571</v>
       </c>
-      <c r="W89" s="9" t="n">
+      <c r="X89" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X89" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y89" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z89" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z89" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA89" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="n">
         <v>2008</v>
       </c>
@@ -8441,7 +8709,7 @@
         <v>0.240477915705271</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
@@ -8449,42 +8717,45 @@
         <v>7.5945084</v>
       </c>
       <c r="M90" s="34"/>
-      <c r="N90" s="36" t="n">
+      <c r="N90" s="29" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="O90" s="36" t="n">
         <v>2080.25</v>
       </c>
-      <c r="O90" s="36"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R90" s="9" t="s">
-        <v>28</v>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="S90" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T90" s="9"/>
-      <c r="U90" s="38" t="n">
+      <c r="T90" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U90" s="9"/>
+      <c r="V90" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="V90" s="9" t="n">
+      <c r="W90" s="9" t="n">
         <f aca="false">416*C90/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W90" s="9" t="n">
+      <c r="X90" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X90" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y90" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z90" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z90" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA90" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="n">
         <v>2008</v>
       </c>
@@ -8513,7 +8784,7 @@
         <v>0.189646575280215</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
@@ -8521,42 +8792,45 @@
         <v>8.26982921666667</v>
       </c>
       <c r="M91" s="34"/>
-      <c r="N91" s="36" t="n">
+      <c r="N91" s="29" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="O91" s="36" t="n">
         <v>2442.83333333333</v>
       </c>
-      <c r="O91" s="36"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R91" s="9" t="s">
-        <v>28</v>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="S91" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T91" s="9"/>
-      <c r="U91" s="38" t="n">
+      <c r="T91" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U91" s="9"/>
+      <c r="V91" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="V91" s="9" t="n">
+      <c r="W91" s="9" t="n">
         <f aca="false">416*C91/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W91" s="9" t="n">
+      <c r="X91" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X91" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y91" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z91" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z91" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA91" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="n">
         <v>2008</v>
       </c>
@@ -8585,7 +8859,7 @@
         <v>0.130819393165415</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J92" s="11"/>
       <c r="K92" s="11"/>
@@ -8593,44 +8867,47 @@
         <v>8.63378475</v>
       </c>
       <c r="M92" s="34"/>
-      <c r="N92" s="36" t="n">
+      <c r="N92" s="29" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="O92" s="36" t="n">
         <v>2824.75</v>
       </c>
-      <c r="O92" s="36"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R92" s="9" t="s">
-        <v>28</v>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="S92" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T92" s="9"/>
-      <c r="U92" s="38" t="n">
+      <c r="T92" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U92" s="9"/>
+      <c r="V92" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="V92" s="9" t="n">
+      <c r="W92" s="9" t="n">
         <f aca="false">416*C92/35</f>
         <v>395.794285714286</v>
       </c>
-      <c r="W92" s="9" t="n">
+      <c r="X92" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X92" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y92" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z92" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z92" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA92" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93" s="7" t="n">
         <v>26.3</v>
@@ -8656,7 +8933,7 @@
         <v>0.2</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
@@ -8666,14 +8943,14 @@
       <c r="M93" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="N93" s="18" t="n">
+      <c r="N93" s="7" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="O93" s="18" t="n">
         <v>2211</v>
       </c>
-      <c r="O93" s="18"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="9"/>
       <c r="R93" s="13" t="s">
         <v>114</v>
       </c>
@@ -8683,29 +8960,32 @@
       <c r="T93" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U93" s="9" t="s">
+      <c r="U93" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="V93" s="9" t="n">
+      <c r="V93" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="W93" s="9" t="n">
         <f aca="false">416*C93/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="W93" s="9" t="n">
+      <c r="X93" s="9" t="n">
         <v>12</v>
-      </c>
-      <c r="X93" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="Y93" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z93" s="9" t="s">
+      <c r="Z93" s="39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA93" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" s="7" t="n">
         <v>26.3</v>
@@ -8731,7 +9011,7 @@
         <v>1.05</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
@@ -8741,14 +9021,14 @@
       <c r="M94" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="N94" s="18" t="n">
+      <c r="N94" s="7" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="O94" s="18" t="n">
         <v>2263.6</v>
       </c>
-      <c r="O94" s="18"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="9"/>
       <c r="R94" s="13" t="s">
         <v>114</v>
       </c>
@@ -8758,29 +9038,32 @@
       <c r="T94" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U94" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="V94" s="9" t="n">
+      <c r="U94" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V94" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="W94" s="9" t="n">
         <f aca="false">416*C94/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="W94" s="9" t="n">
+      <c r="X94" s="9" t="n">
         <v>8</v>
-      </c>
-      <c r="X94" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="Y94" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z94" s="9" t="s">
+      <c r="Z94" s="39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA94" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" s="7" t="n">
         <v>26.3</v>
@@ -8806,7 +9089,7 @@
         <v>0.32</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
@@ -8816,14 +9099,14 @@
       <c r="M95" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="N95" s="18" t="n">
+      <c r="N95" s="7" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="O95" s="18" t="n">
         <v>2298.6</v>
       </c>
-      <c r="O95" s="18"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="9"/>
       <c r="R95" s="13" t="s">
         <v>114</v>
       </c>
@@ -8833,29 +9116,32 @@
       <c r="T95" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U95" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="V95" s="9" t="n">
+      <c r="U95" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V95" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="W95" s="9" t="n">
         <f aca="false">416*C95/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="W95" s="9" t="n">
+      <c r="X95" s="9" t="n">
         <v>22</v>
-      </c>
-      <c r="X95" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="Y95" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z95" s="9" t="s">
+      <c r="Z95" s="39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA95" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" s="7" t="n">
         <v>26.3</v>
@@ -8881,7 +9167,7 @@
         <v>0.25</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
@@ -8891,14 +9177,14 @@
       <c r="M96" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="N96" s="18" t="n">
+      <c r="N96" s="7" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="O96" s="18" t="n">
         <v>2352.3</v>
       </c>
-      <c r="O96" s="18"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="9"/>
       <c r="R96" s="13" t="s">
         <v>114</v>
       </c>
@@ -8908,29 +9194,32 @@
       <c r="T96" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U96" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="V96" s="9" t="n">
+      <c r="U96" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V96" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="W96" s="9" t="n">
         <f aca="false">416*C96/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="W96" s="9" t="n">
+      <c r="X96" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="X96" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="Y96" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z96" s="9" t="s">
+      <c r="Z96" s="39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA96" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B97" s="7" t="n">
         <v>26.3</v>
@@ -8956,7 +9245,7 @@
         <v>0.14</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
@@ -8966,14 +9255,14 @@
       <c r="M97" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="N97" s="18" t="n">
+      <c r="N97" s="7" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="O97" s="18" t="n">
         <v>2477</v>
       </c>
-      <c r="O97" s="18"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="9"/>
       <c r="R97" s="13" t="s">
         <v>114</v>
       </c>
@@ -8983,29 +9272,32 @@
       <c r="T97" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U97" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="V97" s="9" t="n">
+      <c r="U97" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V97" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="W97" s="9" t="n">
         <f aca="false">416*C97/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="W97" s="9" t="n">
+      <c r="X97" s="9" t="n">
         <v>19</v>
-      </c>
-      <c r="X97" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="Y97" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z97" s="9" t="s">
+      <c r="Z97" s="39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA97" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B98" s="7" t="n">
         <v>30.3</v>
@@ -9031,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
@@ -9041,14 +9333,14 @@
       <c r="M98" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="N98" s="18" t="n">
+      <c r="N98" s="7" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="O98" s="18" t="n">
         <v>2532.4</v>
       </c>
-      <c r="O98" s="18"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="9"/>
       <c r="R98" s="13" t="s">
         <v>114</v>
       </c>
@@ -9058,29 +9350,32 @@
       <c r="T98" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U98" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="V98" s="9" t="n">
+      <c r="U98" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V98" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="W98" s="9" t="n">
         <f aca="false">416*C98/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="W98" s="9" t="n">
+      <c r="X98" s="9" t="n">
         <v>2</v>
-      </c>
-      <c r="X98" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="Y98" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z98" s="9" t="s">
+      <c r="Z98" s="39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA98" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="7" t="n">
         <v>27.8</v>
@@ -9106,7 +9401,7 @@
         <v>0.35</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
@@ -9116,14 +9411,14 @@
       <c r="M99" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="N99" s="18" t="n">
+      <c r="N99" s="7" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="O99" s="18" t="n">
         <v>2532.4</v>
       </c>
-      <c r="O99" s="18"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="9"/>
       <c r="R99" s="13" t="s">
         <v>114</v>
       </c>
@@ -9133,29 +9428,32 @@
       <c r="T99" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U99" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="V99" s="9" t="n">
+      <c r="U99" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V99" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="W99" s="9" t="n">
         <f aca="false">416*C99/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="W99" s="9" t="n">
+      <c r="X99" s="9" t="n">
         <v>4</v>
-      </c>
-      <c r="X99" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="Y99" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z99" s="9" t="s">
+      <c r="Z99" s="39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA99" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B100" s="7" t="n">
         <v>25.3</v>
@@ -9181,7 +9479,7 @@
         <v>0.18</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
@@ -9191,14 +9489,14 @@
       <c r="M100" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="N100" s="18" t="n">
+      <c r="N100" s="7" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="O100" s="18" t="n">
         <v>2412.7</v>
       </c>
-      <c r="O100" s="18"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="9"/>
       <c r="R100" s="13" t="s">
         <v>114</v>
       </c>
@@ -9208,29 +9506,32 @@
       <c r="T100" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U100" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="V100" s="9" t="n">
+      <c r="U100" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V100" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="W100" s="9" t="n">
         <f aca="false">416*C100/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="W100" s="9" t="n">
+      <c r="X100" s="9" t="n">
         <v>27</v>
-      </c>
-      <c r="X100" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="Y100" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z100" s="9" t="s">
+      <c r="Z100" s="39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA100" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B101" s="7" t="n">
         <v>22.8</v>
@@ -9256,7 +9557,7 @@
         <v>0.08</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
@@ -9266,14 +9567,14 @@
       <c r="M101" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="N101" s="18" t="n">
+      <c r="N101" s="7" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="O101" s="18" t="n">
         <v>2412.7</v>
       </c>
-      <c r="O101" s="18"/>
-      <c r="P101" s="9"/>
-      <c r="Q101" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="9"/>
       <c r="R101" s="13" t="s">
         <v>114</v>
       </c>
@@ -9283,29 +9584,32 @@
       <c r="T101" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U101" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="V101" s="9" t="n">
+      <c r="U101" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V101" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="W101" s="9" t="n">
         <f aca="false">416*C101/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="W101" s="9" t="n">
+      <c r="X101" s="9" t="n">
         <v>6</v>
-      </c>
-      <c r="X101" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="Y101" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z101" s="9" t="s">
+      <c r="Z101" s="39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA101" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B102" s="7" t="n">
         <v>20.3</v>
@@ -9331,7 +9635,7 @@
         <v>0.14</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
@@ -9341,14 +9645,14 @@
       <c r="M102" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="N102" s="18" t="n">
+      <c r="N102" s="7" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="O102" s="18" t="n">
         <v>2412.7</v>
       </c>
-      <c r="O102" s="18"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="9"/>
       <c r="R102" s="13" t="s">
         <v>114</v>
       </c>
@@ -9358,29 +9662,32 @@
       <c r="T102" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U102" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="V102" s="9" t="n">
+      <c r="U102" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V102" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="W102" s="9" t="n">
         <f aca="false">416*C102/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="W102" s="9" t="n">
+      <c r="X102" s="9" t="n">
         <v>5</v>
-      </c>
-      <c r="X102" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="Y102" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z102" s="9" t="s">
+      <c r="Z102" s="39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA102" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B103" s="40" t="n">
         <v>26</v>
@@ -9406,7 +9713,7 @@
         <v>0.15</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
@@ -9416,16 +9723,16 @@
       <c r="M103" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="N103" s="42" t="n">
+      <c r="N103" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="O103" s="42" t="n">
         <v>2392.1</v>
       </c>
-      <c r="O103" s="18"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="9"/>
       <c r="R103" s="13" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="S103" s="13" t="s">
         <v>115</v>
@@ -9433,29 +9740,32 @@
       <c r="T103" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U103" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="V103" s="9" t="n">
+      <c r="U103" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V103" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="W103" s="9" t="n">
         <f aca="false">416*C103/35</f>
         <v>442.148571428572</v>
       </c>
-      <c r="W103" s="9" t="n">
+      <c r="X103" s="9" t="n">
         <v>120</v>
-      </c>
-      <c r="X103" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y103" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z103" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z103" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA103" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B104" s="40" t="n">
         <v>26</v>
@@ -9481,7 +9791,7 @@
         <v>0.21</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J104" s="11"/>
       <c r="K104" s="11"/>
@@ -9491,16 +9801,16 @@
       <c r="M104" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="N104" s="42" t="n">
+      <c r="N104" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="O104" s="42" t="n">
         <v>2188.7</v>
       </c>
-      <c r="O104" s="18"/>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="9"/>
       <c r="R104" s="13" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="S104" s="13" t="s">
         <v>115</v>
@@ -9508,29 +9818,32 @@
       <c r="T104" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U104" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="V104" s="9" t="n">
+      <c r="U104" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V104" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="W104" s="9" t="n">
         <f aca="false">416*C104/35</f>
         <v>442.148571428572</v>
       </c>
-      <c r="W104" s="9" t="n">
+      <c r="X104" s="9" t="n">
         <v>105</v>
-      </c>
-      <c r="X104" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y104" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z104" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z104" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA104" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B105" s="40" t="n">
         <v>26</v>
@@ -9556,7 +9869,7 @@
         <v>0.21</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J105" s="11"/>
       <c r="K105" s="11"/>
@@ -9566,16 +9879,16 @@
       <c r="M105" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="N105" s="42" t="n">
+      <c r="N105" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="O105" s="42" t="n">
         <v>2026.886</v>
       </c>
-      <c r="O105" s="18"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="9"/>
       <c r="R105" s="13" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="S105" s="13" t="s">
         <v>115</v>
@@ -9583,29 +9896,32 @@
       <c r="T105" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U105" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="V105" s="9" t="n">
+      <c r="U105" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V105" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="W105" s="9" t="n">
         <f aca="false">416*C105/35</f>
         <v>442.148571428572</v>
       </c>
-      <c r="W105" s="9" t="n">
+      <c r="X105" s="9" t="n">
         <v>106</v>
-      </c>
-      <c r="X105" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y105" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z105" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z105" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA105" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B106" s="7" t="n">
         <v>26.5</v>
@@ -9631,7 +9947,7 @@
         <v>0.24</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J106" s="11"/>
       <c r="K106" s="11"/>
@@ -9641,13 +9957,13 @@
       <c r="M106" s="9" t="n">
         <v>0.02</v>
       </c>
-      <c r="N106" s="18"/>
+      <c r="N106" s="7" t="n">
+        <v>26.5</v>
+      </c>
       <c r="O106" s="18"/>
-      <c r="P106" s="9" t="n">
+      <c r="P106" s="18"/>
+      <c r="Q106" s="9" t="n">
         <v>2175</v>
-      </c>
-      <c r="Q106" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="R106" s="13" t="s">
         <v>114</v>
@@ -9658,26 +9974,29 @@
       <c r="T106" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U106" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="V106" s="9" t="n">
+      <c r="U106" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V106" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="W106" s="9" t="n">
         <f aca="false">416*C106/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="X106" s="39" t="s">
-        <v>118</v>
-      </c>
       <c r="Y106" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z106" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z106" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA106" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" s="7" t="n">
         <v>26.5</v>
@@ -9703,7 +10022,7 @@
         <v>0.16</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
@@ -9713,13 +10032,13 @@
       <c r="M107" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="N107" s="18"/>
+      <c r="N107" s="7" t="n">
+        <v>26.5</v>
+      </c>
       <c r="O107" s="18"/>
-      <c r="P107" s="9" t="n">
+      <c r="P107" s="18"/>
+      <c r="Q107" s="9" t="n">
         <v>2092</v>
-      </c>
-      <c r="Q107" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="R107" s="13" t="s">
         <v>114</v>
@@ -9730,26 +10049,29 @@
       <c r="T107" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U107" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="V107" s="9" t="n">
+      <c r="U107" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V107" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="W107" s="9" t="n">
         <f aca="false">416*C107/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="X107" s="39" t="s">
-        <v>118</v>
-      </c>
       <c r="Y107" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z107" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z107" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA107" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B108" s="7" t="n">
         <v>26.5</v>
@@ -9775,7 +10097,7 @@
         <v>0.11</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
@@ -9785,13 +10107,13 @@
       <c r="M108" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="18"/>
+      <c r="N108" s="7" t="n">
+        <v>26.5</v>
+      </c>
       <c r="O108" s="18"/>
-      <c r="P108" s="9" t="n">
+      <c r="P108" s="18"/>
+      <c r="Q108" s="9" t="n">
         <v>2026</v>
-      </c>
-      <c r="Q108" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="R108" s="13" t="s">
         <v>114</v>
@@ -9802,24 +10124,27 @@
       <c r="T108" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U108" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="V108" s="9" t="n">
+      <c r="U108" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V108" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="W108" s="9" t="n">
         <f aca="false">416*C108/35</f>
         <v>439.771428571429</v>
       </c>
-      <c r="X108" s="39" t="s">
-        <v>118</v>
-      </c>
       <c r="Y108" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z108" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z108" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA108" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="n">
         <v>2006</v>
       </c>
@@ -9847,7 +10172,7 @@
         <v>0.3</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J109" s="11" t="n">
         <v>7.91</v>
@@ -9857,18 +10182,18 @@
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
-      <c r="N109" s="18" t="n">
+      <c r="N109" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="O109" s="18" t="n">
         <v>2040</v>
       </c>
-      <c r="O109" s="18" t="n">
+      <c r="P109" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="Q109" s="9"/>
       <c r="R109" s="13" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="S109" s="13" t="s">
         <v>115</v>
@@ -9876,27 +10201,30 @@
       <c r="T109" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U109" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="V109" s="9" t="n">
+      <c r="U109" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V109" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="W109" s="9" t="n">
         <f aca="false">416*C109/35</f>
         <v>416</v>
       </c>
-      <c r="W109" s="9" t="n">
+      <c r="X109" s="9" t="n">
         <v>2</v>
-      </c>
-      <c r="X109" s="39" t="s">
-        <v>141</v>
       </c>
       <c r="Y109" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="Z109" s="9" t="s">
+      <c r="Z109" s="39" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA109" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="n">
         <v>2006</v>
       </c>
@@ -9924,7 +10252,7 @@
         <v>0.2</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J110" s="11" t="n">
         <v>8.09</v>
@@ -9934,18 +10262,18 @@
       </c>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
-      <c r="N110" s="18" t="n">
+      <c r="N110" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="O110" s="18" t="n">
         <v>2133</v>
       </c>
-      <c r="O110" s="18" t="n">
+      <c r="P110" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="P110" s="9"/>
-      <c r="Q110" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="Q110" s="9"/>
       <c r="R110" s="13" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="S110" s="13" t="s">
         <v>115</v>
@@ -9953,27 +10281,30 @@
       <c r="T110" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U110" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="V110" s="9" t="n">
+      <c r="U110" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V110" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="W110" s="9" t="n">
         <f aca="false">416*C110/35</f>
         <v>416</v>
       </c>
-      <c r="W110" s="9" t="n">
+      <c r="X110" s="9" t="n">
         <v>3</v>
-      </c>
-      <c r="X110" s="39" t="s">
-        <v>141</v>
       </c>
       <c r="Y110" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="Z110" s="9" t="s">
+      <c r="Z110" s="39" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA110" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="n">
         <v>2006</v>
       </c>
@@ -10001,7 +10332,7 @@
         <v>0.2</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J111" s="11" t="n">
         <v>8.27</v>
@@ -10011,18 +10342,18 @@
       </c>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
-      <c r="N111" s="18" t="n">
+      <c r="N111" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="O111" s="18" t="n">
         <v>2259</v>
       </c>
-      <c r="O111" s="18" t="n">
+      <c r="P111" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="Q111" s="9"/>
       <c r="R111" s="13" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="S111" s="13" t="s">
         <v>115</v>
@@ -10030,27 +10361,30 @@
       <c r="T111" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U111" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="V111" s="9" t="n">
+      <c r="U111" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V111" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="W111" s="9" t="n">
         <f aca="false">416*C111/35</f>
         <v>416</v>
       </c>
-      <c r="W111" s="9" t="n">
+      <c r="X111" s="9" t="n">
         <v>3</v>
-      </c>
-      <c r="X111" s="39" t="s">
-        <v>141</v>
       </c>
       <c r="Y111" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="Z111" s="9" t="s">
+      <c r="Z111" s="39" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA111" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="n">
         <v>2006</v>
       </c>
@@ -10078,7 +10412,7 @@
         <v>0.2</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J112" s="11" t="n">
         <v>8.43</v>
@@ -10088,18 +10422,18 @@
       </c>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
-      <c r="N112" s="18" t="n">
+      <c r="N112" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="O112" s="18" t="n">
         <v>2423</v>
       </c>
-      <c r="O112" s="18" t="n">
+      <c r="P112" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="P112" s="9"/>
-      <c r="Q112" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="Q112" s="9"/>
       <c r="R112" s="13" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="S112" s="13" t="s">
         <v>115</v>
@@ -10107,27 +10441,30 @@
       <c r="T112" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U112" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="V112" s="9" t="n">
+      <c r="U112" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V112" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="W112" s="9" t="n">
         <f aca="false">416*C112/35</f>
         <v>416</v>
       </c>
-      <c r="W112" s="9" t="n">
+      <c r="X112" s="9" t="n">
         <v>2</v>
-      </c>
-      <c r="X112" s="39" t="s">
-        <v>141</v>
       </c>
       <c r="Y112" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="Z112" s="9" t="s">
+      <c r="Z112" s="39" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA112" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="43" t="n">
         <v>2010</v>
       </c>
@@ -10155,7 +10492,7 @@
         <v>0.192194001493768</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
@@ -10163,44 +10500,47 @@
         <v>8.04172897142857</v>
       </c>
       <c r="M113" s="9"/>
-      <c r="N113" s="36" t="n">
+      <c r="N113" s="34" t="n">
+        <v>24.0117</v>
+      </c>
+      <c r="O113" s="36" t="n">
         <v>2343.69057142857</v>
       </c>
-      <c r="O113" s="18"/>
-      <c r="P113" s="9"/>
-      <c r="Q113" s="13" t="s">
-        <v>109</v>
-      </c>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="9"/>
       <c r="R113" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S113" s="13" t="s">
         <v>115</v>
       </c>
       <c r="T113" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="U113" s="38" t="n">
+        <v>116</v>
+      </c>
+      <c r="U113" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="V113" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="V113" s="9" t="n">
+      <c r="W113" s="9" t="n">
         <f aca="false">416*C113/35</f>
         <v>423.131428571429</v>
       </c>
-      <c r="W113" s="13" t="n">
+      <c r="X113" s="13" t="n">
         <v>45</v>
-      </c>
-      <c r="X113" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y113" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z113" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z113" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA113" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="43" t="n">
         <v>2010</v>
       </c>
@@ -10228,7 +10568,7 @@
         <v>0.183782752434667</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
@@ -10236,44 +10576,47 @@
         <v>8.03988349090909</v>
       </c>
       <c r="M114" s="9"/>
-      <c r="N114" s="36" t="n">
+      <c r="N114" s="34" t="n">
+        <v>25.6963</v>
+      </c>
+      <c r="O114" s="36" t="n">
         <v>2342.08448181818</v>
       </c>
-      <c r="O114" s="18"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="13" t="s">
-        <v>109</v>
-      </c>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="9"/>
       <c r="R114" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S114" s="13" t="s">
         <v>115</v>
       </c>
       <c r="T114" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="U114" s="38" t="n">
+        <v>116</v>
+      </c>
+      <c r="U114" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="V114" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="V114" s="9" t="n">
+      <c r="W114" s="9" t="n">
         <f aca="false">416*C114/35</f>
         <v>420.754285714286</v>
       </c>
-      <c r="W114" s="13" t="n">
+      <c r="X114" s="13" t="n">
         <v>45</v>
-      </c>
-      <c r="X114" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y114" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z114" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z114" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA114" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="43" t="n">
         <v>2010</v>
       </c>
@@ -10301,7 +10644,7 @@
         <v>0.243664249929686</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
@@ -10309,44 +10652,47 @@
         <v>7.9789353</v>
       </c>
       <c r="M115" s="9"/>
-      <c r="N115" s="36" t="n">
+      <c r="N115" s="34" t="n">
+        <v>29.3328</v>
+      </c>
+      <c r="O115" s="36" t="n">
         <v>2346.56955</v>
       </c>
-      <c r="O115" s="18"/>
-      <c r="P115" s="9"/>
-      <c r="Q115" s="13" t="s">
-        <v>109</v>
-      </c>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="9"/>
       <c r="R115" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S115" s="13" t="s">
         <v>115</v>
       </c>
       <c r="T115" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="U115" s="38" t="n">
+        <v>116</v>
+      </c>
+      <c r="U115" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="V115" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="V115" s="9" t="n">
+      <c r="W115" s="9" t="n">
         <f aca="false">416*C115/35</f>
         <v>418.377142857143</v>
       </c>
-      <c r="W115" s="13" t="n">
+      <c r="X115" s="13" t="n">
         <v>45</v>
-      </c>
-      <c r="X115" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y115" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z115" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z115" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA115" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="43" t="n">
         <v>2010</v>
       </c>
@@ -10374,7 +10720,7 @@
         <v>0.183782752434667</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
@@ -10382,44 +10728,47 @@
         <v>8.03988349090909</v>
       </c>
       <c r="M116" s="9"/>
-      <c r="N116" s="36" t="n">
+      <c r="N116" s="34" t="n">
+        <v>25.6963</v>
+      </c>
+      <c r="O116" s="36" t="n">
         <v>2342.08448181818</v>
       </c>
-      <c r="O116" s="18"/>
-      <c r="P116" s="9"/>
-      <c r="Q116" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="R116" s="13" t="s">
-        <v>114</v>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="S116" s="13" t="s">
         <v>115</v>
       </c>
       <c r="T116" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="U116" s="38" t="n">
+        <v>116</v>
+      </c>
+      <c r="U116" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="V116" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="V116" s="9" t="n">
+      <c r="W116" s="9" t="n">
         <f aca="false">416*C116/35</f>
         <v>392.228571428571</v>
       </c>
-      <c r="W116" s="13" t="n">
+      <c r="X116" s="13" t="n">
         <v>45</v>
-      </c>
-      <c r="X116" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y116" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z116" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z116" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA116" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="43" t="n">
         <v>2010</v>
       </c>
@@ -10447,7 +10796,7 @@
         <v>0.231394780395395</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J117" s="11"/>
       <c r="K117" s="11"/>
@@ -10455,44 +10804,47 @@
         <v>8.04369712</v>
       </c>
       <c r="M117" s="9"/>
-      <c r="N117" s="36" t="n">
+      <c r="N117" s="34" t="n">
+        <v>25.2784</v>
+      </c>
+      <c r="O117" s="36" t="n">
         <v>2608.54959</v>
       </c>
-      <c r="O117" s="18"/>
-      <c r="P117" s="9"/>
-      <c r="Q117" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="R117" s="13" t="s">
-        <v>114</v>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="S117" s="13" t="s">
         <v>115</v>
       </c>
       <c r="T117" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="U117" s="38" t="n">
+        <v>116</v>
+      </c>
+      <c r="U117" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="V117" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="V117" s="9" t="n">
+      <c r="W117" s="9" t="n">
         <f aca="false">416*C117/35</f>
         <v>475.428571428571</v>
       </c>
-      <c r="W117" s="13" t="n">
+      <c r="X117" s="13" t="n">
         <v>45</v>
-      </c>
-      <c r="X117" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y117" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z117" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z117" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA117" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="43" t="n">
         <v>2010</v>
       </c>
@@ -10520,7 +10872,7 @@
         <v>0.23685761127876</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J118" s="11"/>
       <c r="K118" s="11"/>
@@ -10528,44 +10880,47 @@
         <v>7.48626881333333</v>
       </c>
       <c r="M118" s="9"/>
-      <c r="N118" s="36" t="n">
+      <c r="N118" s="34" t="n">
+        <v>25.7351</v>
+      </c>
+      <c r="O118" s="36" t="n">
         <v>2060.644</v>
       </c>
-      <c r="O118" s="18"/>
-      <c r="P118" s="9"/>
-      <c r="Q118" s="13" t="s">
-        <v>109</v>
-      </c>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="9"/>
       <c r="R118" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S118" s="13" t="s">
         <v>115</v>
       </c>
       <c r="T118" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="U118" s="38" t="n">
+        <v>116</v>
+      </c>
+      <c r="U118" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="V118" s="38" t="n">
         <v>12</v>
       </c>
-      <c r="V118" s="9" t="n">
+      <c r="W118" s="9" t="n">
         <f aca="false">416*C118/35</f>
         <v>422.180571428572</v>
       </c>
-      <c r="W118" s="13" t="n">
+      <c r="X118" s="13" t="n">
         <v>45</v>
-      </c>
-      <c r="X118" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y118" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z118" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z118" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA118" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="43" t="n">
         <v>2010</v>
       </c>
@@ -10593,7 +10948,7 @@
         <v>0.169427156353165</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J119" s="11"/>
       <c r="K119" s="11"/>
@@ -10601,46 +10956,49 @@
         <v>8.45207027272727</v>
       </c>
       <c r="M119" s="9"/>
-      <c r="N119" s="36" t="n">
+      <c r="N119" s="34" t="n">
+        <v>25.716</v>
+      </c>
+      <c r="O119" s="36" t="n">
         <v>2755.29163636364</v>
       </c>
-      <c r="O119" s="18"/>
-      <c r="P119" s="9"/>
-      <c r="Q119" s="13" t="s">
-        <v>109</v>
-      </c>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="9"/>
       <c r="R119" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S119" s="13" t="s">
         <v>115</v>
       </c>
       <c r="T119" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="U119" s="38" t="n">
+        <v>116</v>
+      </c>
+      <c r="U119" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="V119" s="38" t="n">
         <v>13</v>
       </c>
-      <c r="V119" s="9" t="n">
+      <c r="W119" s="9" t="n">
         <f aca="false">416*C119/35</f>
         <v>421.726753246753</v>
       </c>
-      <c r="W119" s="13" t="n">
+      <c r="X119" s="13" t="n">
         <v>45</v>
-      </c>
-      <c r="X119" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="Y119" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z119" s="9" t="s">
-        <v>148</v>
+      <c r="Z119" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA119" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B120" s="34" t="n">
         <v>17</v>
@@ -10667,44 +11025,47 @@
         <v>2.08</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J120" s="0" t="n">
         <v>8.15</v>
       </c>
-      <c r="Q120" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="R120" s="13" t="s">
-        <v>28</v>
+      <c r="N120" s="34" t="n">
+        <v>17</v>
+      </c>
+      <c r="R120" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="S120" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T120" s="13"/>
-      <c r="U120" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="V120" s="9" t="n">
+      <c r="T120" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U120" s="13"/>
+      <c r="V120" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="W120" s="9" t="n">
         <f aca="false">416*C120/35</f>
         <v>392.228571428571</v>
       </c>
-      <c r="W120" s="9" t="n">
+      <c r="X120" s="9" t="n">
         <v>7</v>
-      </c>
-      <c r="X120" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="Y120" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="Z120" s="0" t="s">
+      <c r="Z120" s="14" t="s">
         <v>156</v>
+      </c>
+      <c r="AA120" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B121" s="34" t="n">
         <v>22</v>
@@ -10731,44 +11092,47 @@
         <v>3.92</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J121" s="0" t="n">
         <v>8.15</v>
       </c>
-      <c r="Q121" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="R121" s="13" t="s">
-        <v>28</v>
+      <c r="N121" s="34" t="n">
+        <v>22</v>
+      </c>
+      <c r="R121" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="S121" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T121" s="13"/>
-      <c r="U121" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="V121" s="9" t="n">
+      <c r="T121" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U121" s="13"/>
+      <c r="V121" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="W121" s="9" t="n">
         <f aca="false">416*C121/35</f>
         <v>392.228571428571</v>
       </c>
-      <c r="W121" s="9" t="n">
+      <c r="X121" s="9" t="n">
         <v>8</v>
-      </c>
-      <c r="X121" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="Y121" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="Z121" s="22" t="s">
+      <c r="Z121" s="14" t="s">
         <v>156</v>
+      </c>
+      <c r="AA121" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B122" s="34" t="n">
         <v>27</v>
@@ -10795,44 +11159,47 @@
         <v>5.64</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>8.15</v>
       </c>
-      <c r="Q122" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="R122" s="13" t="s">
-        <v>28</v>
+      <c r="N122" s="34" t="n">
+        <v>27</v>
+      </c>
+      <c r="R122" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="S122" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T122" s="13"/>
-      <c r="U122" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="V122" s="9" t="n">
+      <c r="T122" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U122" s="13"/>
+      <c r="V122" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="W122" s="9" t="n">
         <f aca="false">416*C122/35</f>
         <v>392.228571428571</v>
       </c>
-      <c r="W122" s="9" t="n">
+      <c r="X122" s="9" t="n">
         <v>7</v>
-      </c>
-      <c r="X122" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="Y122" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="Z122" s="22" t="s">
+      <c r="Z122" s="14" t="s">
         <v>156</v>
+      </c>
+      <c r="AA122" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B123" s="34" t="n">
         <v>22</v>
@@ -10859,44 +11226,47 @@
         <v>7.94</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J123" s="0" t="n">
         <v>8.15</v>
       </c>
-      <c r="Q123" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="R123" s="13" t="s">
-        <v>28</v>
+      <c r="N123" s="34" t="n">
+        <v>22</v>
+      </c>
+      <c r="R123" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="S123" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T123" s="13"/>
-      <c r="U123" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="V123" s="9" t="n">
+      <c r="T123" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U123" s="13"/>
+      <c r="V123" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="W123" s="9" t="n">
         <f aca="false">416*C123/35</f>
         <v>320.914285714286</v>
       </c>
-      <c r="W123" s="9" t="n">
+      <c r="X123" s="9" t="n">
         <v>7</v>
-      </c>
-      <c r="X123" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="Y123" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="Z123" s="22" t="s">
+      <c r="Z123" s="14" t="s">
         <v>156</v>
+      </c>
+      <c r="AA123" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B124" s="34" t="n">
         <v>22</v>
@@ -10923,44 +11293,47 @@
         <v>3.14</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J124" s="0" t="n">
         <v>8.15</v>
       </c>
-      <c r="Q124" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="R124" s="13" t="s">
-        <v>28</v>
+      <c r="N124" s="34" t="n">
+        <v>22</v>
+      </c>
+      <c r="R124" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="S124" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T124" s="13"/>
-      <c r="U124" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="V124" s="9" t="n">
+      <c r="T124" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U124" s="13"/>
+      <c r="V124" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="W124" s="9" t="n">
         <f aca="false">416*C124/35</f>
         <v>463.542857142857</v>
       </c>
-      <c r="W124" s="9" t="n">
+      <c r="X124" s="9" t="n">
         <v>8</v>
-      </c>
-      <c r="X124" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="Y124" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="Z124" s="22" t="s">
+      <c r="Z124" s="14" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA124" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B125" s="34" t="n">
         <v>22</v>
@@ -10987,41 +11360,44 @@
         <v>7.2</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J125" s="0" t="n">
         <v>7.8</v>
       </c>
-      <c r="Q125" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="R125" s="13" t="s">
-        <v>28</v>
+      <c r="N125" s="34" t="n">
+        <v>22</v>
+      </c>
+      <c r="R125" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="S125" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T125" s="13"/>
-      <c r="U125" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="V125" s="9" t="n">
+      <c r="T125" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U125" s="13"/>
+      <c r="V125" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="W125" s="9" t="n">
         <f aca="false">416*C125/35</f>
         <v>392.228571428571</v>
       </c>
-      <c r="W125" s="9" t="n">
+      <c r="X125" s="9" t="n">
         <v>9</v>
-      </c>
-      <c r="X125" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="Y125" s="14" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z125" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B126" s="34" t="n">
         <v>22</v>
@@ -11048,36 +11424,39 @@
         <v>1.56</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J126" s="0" t="n">
         <v>8.6</v>
       </c>
-      <c r="Q126" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="R126" s="13" t="s">
-        <v>28</v>
+      <c r="N126" s="34" t="n">
+        <v>22</v>
+      </c>
+      <c r="R126" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="S126" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T126" s="13"/>
-      <c r="U126" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="V126" s="9" t="n">
+      <c r="T126" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U126" s="13"/>
+      <c r="V126" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="W126" s="9" t="n">
         <f aca="false">416*C126/35</f>
         <v>392.228571428571</v>
       </c>
-      <c r="W126" s="9" t="n">
+      <c r="X126" s="9" t="n">
         <v>9</v>
-      </c>
-      <c r="X126" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="Y126" s="14" t="s">
         <v>155</v>
+      </c>
+      <c r="Z126" s="14" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
